--- a/data/Excel misc/Table_for_SS3.xlsx
+++ b/data/Excel misc/Table_for_SS3.xlsx
@@ -8,21 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jim/_mymods/ebswp/data/Excel misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AF21F7-BF10-DB4B-94BB-CA2D57EBBE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8262F858-C99F-524E-B880-B9B12984B590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-820" yWindow="-21000" windowWidth="38220" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1040" windowWidth="35840" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
     <sheet name="Table_for_SS3" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Table_for_SS3!$O$3:$O$40</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Table_for_SS3!$V$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Table_for_SS3!$V$3:$V$40</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Table_for_SS3!$W$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Table_for_SS3!$W$3:$W$40</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -61,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="14">
   <si>
     <t>Year</t>
   </si>
@@ -81,6 +74,12 @@
     <t>SD_mt</t>
   </si>
   <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>EBS</t>
+  </si>
+  <si>
     <t>NBS</t>
   </si>
   <si>
@@ -94,6 +93,9 @@
   </si>
   <si>
     <t>With Cpe</t>
+  </si>
+  <si>
+    <t>WithoutCPE</t>
   </si>
 </sst>
 </file>
@@ -5818,10 +5820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BI122"/>
+  <dimension ref="A1:CC123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F116"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AP4" sqref="AP4:CC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5829,7 +5831,7 @@
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="D1" s="1">
         <f>AVERAGE(D3:D40)</f>
         <v>7262989.6184736816</v>
@@ -5953,7 +5955,7 @@
         <v>9732.5385289999995</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6004,16 +6006,19 @@
         <v>5</v>
       </c>
       <c r="V2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AB2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1982</v>
       </c>
@@ -6086,26 +6091,44 @@
         <f>X3/(R3/1000)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AB3" t="s">
         <v>0</v>
       </c>
-      <c r="AC3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AC3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="s">
         <v>2</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AE3" t="s">
         <v>3</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AF3" t="s">
         <v>4</v>
       </c>
-      <c r="AG3" s="6" t="s">
+      <c r="AG3" t="s">
         <v>5</v>
       </c>
+      <c r="AI3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1983</v>
       </c>
@@ -6177,26 +6200,168 @@
         <f t="shared" ref="Y4:Y40" si="7">X4/(R4/1000)</f>
         <v>1</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AB4">
         <v>1982</v>
       </c>
-      <c r="AC4" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="6">
-        <v>3946730.2009999999</v>
-      </c>
-      <c r="AF4" s="6">
-        <v>9.7285480199999996E-2</v>
-      </c>
-      <c r="AG4" s="6">
-        <v>307074.45699999999</v>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE4">
+        <v>3915904.39450741</v>
+      </c>
+      <c r="AF4">
+        <v>9.4175422425041899E-2</v>
+      </c>
+      <c r="AG4">
+        <v>281711.85561248899</v>
+      </c>
+      <c r="AI4">
+        <v>1982</v>
+      </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL4">
+        <v>3880879.3908351199</v>
+      </c>
+      <c r="AM4">
+        <v>9.3486541537759094E-2</v>
+      </c>
+      <c r="AN4">
+        <v>277457.82213874999</v>
+      </c>
+      <c r="AO4">
+        <f>AN4/1000</f>
+        <v>277.45782213874998</v>
+      </c>
+      <c r="AP4">
+        <v>277.45782213874998</v>
+      </c>
+      <c r="AQ4">
+        <v>625.04631955399202</v>
+      </c>
+      <c r="AR4">
+        <v>435.15788782854696</v>
+      </c>
+      <c r="AS4">
+        <v>590.60438967360994</v>
+      </c>
+      <c r="AT4">
+        <v>534.80416540763395</v>
+      </c>
+      <c r="AU4">
+        <v>597.40736565854502</v>
+      </c>
+      <c r="AV4">
+        <v>976.58280261505604</v>
+      </c>
+      <c r="AW4">
+        <v>672.97225224758108</v>
+      </c>
+      <c r="AX4">
+        <v>987.97062224276306</v>
+      </c>
+      <c r="AY4">
+        <v>485.68728674559901</v>
+      </c>
+      <c r="AZ4">
+        <v>454.58160373199996</v>
+      </c>
+      <c r="BA4">
+        <v>537.16037735474094</v>
+      </c>
+      <c r="BB4">
+        <v>463.03387823378102</v>
+      </c>
+      <c r="BC4">
+        <v>567.03173515942206</v>
+      </c>
+      <c r="BD4">
+        <v>247.16274281830098</v>
+      </c>
+      <c r="BE4">
+        <v>275.73964140045001</v>
+      </c>
+      <c r="BF4">
+        <v>219.107099727899</v>
+      </c>
+      <c r="BG4">
+        <v>423.34173384022199</v>
+      </c>
+      <c r="BH4">
+        <v>505.955501318362</v>
+      </c>
+      <c r="BI4">
+        <v>415.615679315644</v>
+      </c>
+      <c r="BJ4">
+        <v>398.09978863858896</v>
+      </c>
+      <c r="BK4">
+        <v>790.64038436517308</v>
+      </c>
+      <c r="BL4">
+        <v>369.86962057793897</v>
+      </c>
+      <c r="BM4">
+        <v>458.18447040454396</v>
+      </c>
+      <c r="BN4">
+        <v>275.08070755520902</v>
+      </c>
+      <c r="BO4">
+        <v>554.93132421558596</v>
+      </c>
+      <c r="BP4">
+        <v>341.24863037334802</v>
+      </c>
+      <c r="BQ4">
+        <v>235.80453854947902</v>
+      </c>
+      <c r="BR4">
+        <v>410.26411686923797</v>
+      </c>
+      <c r="BS4">
+        <v>322.58916726487797</v>
+      </c>
+      <c r="BT4">
+        <v>344.12225003430399</v>
+      </c>
+      <c r="BU4">
+        <v>443.19200708353702</v>
+      </c>
+      <c r="BV4">
+        <v>675.45804540753898</v>
+      </c>
+      <c r="BW4">
+        <v>697.76496444899203</v>
+      </c>
+      <c r="BX4">
+        <v>686.23354865778401</v>
+      </c>
+      <c r="BY4">
+        <v>463.33750427337901</v>
+      </c>
+      <c r="BZ4">
+        <v>315.42966204482002</v>
+      </c>
+      <c r="CA4">
+        <v>460.60438311766296</v>
+      </c>
+      <c r="CB4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CC4">
+        <v>253.96851278272101</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>1984</v>
       </c>
@@ -6268,26 +6433,48 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AB5" s="6">
+      <c r="AB5">
         <v>1983</v>
       </c>
-      <c r="AC5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="6">
-        <v>9398027.9619999994</v>
-      </c>
-      <c r="AF5" s="6">
-        <v>8.6638903579999996E-2</v>
-      </c>
-      <c r="AG5" s="6">
-        <v>638155.61360000004</v>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE5">
+        <v>9619513.9097796492</v>
+      </c>
+      <c r="AF5">
+        <v>9.1012776889489097E-2</v>
+      </c>
+      <c r="AG5">
+        <v>648862.46337593405</v>
+      </c>
+      <c r="AI5">
+        <v>1983</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL5">
+        <v>9455252.4114339203</v>
+      </c>
+      <c r="AM5">
+        <v>8.8521019099695605E-2</v>
+      </c>
+      <c r="AN5">
+        <v>625046.31955399201</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" ref="AO5:AO43" si="8">AN5/1000</f>
+        <v>625.04631955399202</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>1985</v>
       </c>
@@ -6359,26 +6546,48 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AB6" s="6">
+      <c r="AB6">
         <v>1984</v>
       </c>
-      <c r="AC6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="6">
-        <v>6886313.375</v>
-      </c>
-      <c r="AF6" s="6">
-        <v>9.3148479369999995E-2</v>
-      </c>
-      <c r="AG6" s="6">
-        <v>505926.9988</v>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE6">
+        <v>6537907.6325175297</v>
+      </c>
+      <c r="AF6">
+        <v>8.9718819106834102E-2</v>
+      </c>
+      <c r="AG6">
+        <v>440005.62239920901</v>
+      </c>
+      <c r="AI6">
+        <v>1984</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL6">
+        <v>6481412.1692341501</v>
+      </c>
+      <c r="AM6">
+        <v>8.9256696600974197E-2</v>
+      </c>
+      <c r="AN6">
+        <v>435157.88782854698</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" si="8"/>
+        <v>435.15788782854696</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>1986</v>
       </c>
@@ -6450,26 +6659,48 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AB7" s="6">
+      <c r="AB7">
         <v>1985</v>
       </c>
-      <c r="AC7" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="6">
-        <v>7993125.7089999998</v>
-      </c>
-      <c r="AF7" s="6">
-        <v>0.1016981802</v>
-      </c>
-      <c r="AG7" s="6">
-        <v>631322.37600000005</v>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE7">
+        <v>7929455.9766499698</v>
+      </c>
+      <c r="AF7">
+        <v>0.10134042460043199</v>
+      </c>
+      <c r="AG7">
+        <v>591338.18955543905</v>
+      </c>
+      <c r="AI7">
+        <v>1985</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL7">
+        <v>7899690.3080514204</v>
+      </c>
+      <c r="AM7">
+        <v>0.101226797825238</v>
+      </c>
+      <c r="AN7">
+        <v>590604.38967360999</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="8"/>
+        <v>590.60438967360994</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1987</v>
       </c>
@@ -6541,26 +6772,48 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AB8" s="6">
+      <c r="AB8">
         <v>1986</v>
       </c>
-      <c r="AC8" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="6">
-        <v>7276289.5980000002</v>
-      </c>
-      <c r="AF8" s="6">
-        <v>9.7472048310000003E-2</v>
-      </c>
-      <c r="AG8" s="6">
-        <v>556139.30110000004</v>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE8">
+        <v>7207349.0904692998</v>
+      </c>
+      <c r="AF8">
+        <v>9.5641950586935101E-2</v>
+      </c>
+      <c r="AG8">
+        <v>514578.006465838</v>
+      </c>
+      <c r="AI8">
+        <v>1986</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL8">
+        <v>7360062.93745255</v>
+      </c>
+      <c r="AM8">
+        <v>9.7769428434650599E-2</v>
+      </c>
+      <c r="AN8">
+        <v>534804.16540763399</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="8"/>
+        <v>534.80416540763395</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>1988</v>
       </c>
@@ -6632,26 +6885,48 @@
         <f t="shared" si="7"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AB9" s="6">
+      <c r="AB9">
         <v>1987</v>
       </c>
-      <c r="AC9" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="6">
-        <v>7694980.1119999997</v>
-      </c>
-      <c r="AF9" s="6">
-        <v>0.10442789080000001</v>
-      </c>
-      <c r="AG9" s="6">
-        <v>638520.33380000002</v>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE9">
+        <v>7933248.8923255596</v>
+      </c>
+      <c r="AF9">
+        <v>0.10525911951657101</v>
+      </c>
+      <c r="AG9">
+        <v>631951.75882067997</v>
+      </c>
+      <c r="AI9">
+        <v>1987</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL9">
+        <v>7759086.4060707297</v>
+      </c>
+      <c r="AM9">
+        <v>0.101445181382224</v>
+      </c>
+      <c r="AN9">
+        <v>597407.36565854505</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" si="8"/>
+        <v>597.40736565854502</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>1989</v>
       </c>
@@ -6723,26 +6998,48 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AB10" s="6">
+      <c r="AB10">
         <v>1988</v>
       </c>
-      <c r="AC10" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="6">
-        <v>11784178.960000001</v>
-      </c>
-      <c r="AF10" s="6">
-        <v>0.11254854979999999</v>
-      </c>
-      <c r="AG10" s="6">
-        <v>1065426.578</v>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE10">
+        <v>11712366.3365722</v>
+      </c>
+      <c r="AF10">
+        <v>0.107489684787972</v>
+      </c>
+      <c r="AG10">
+        <v>964775.15466342901</v>
+      </c>
+      <c r="AI10">
+        <v>1988</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL10">
+        <v>11838424.042240201</v>
+      </c>
+      <c r="AM10">
+        <v>0.10763629936845</v>
+      </c>
+      <c r="AN10">
+        <v>976582.80261505605</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="8"/>
+        <v>976.58280261505604</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>1990</v>
       </c>
@@ -6814,26 +7111,48 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AB11" s="6">
+      <c r="AB11">
         <v>1989</v>
       </c>
-      <c r="AC11" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="6">
-        <v>10745152.539999999</v>
-      </c>
-      <c r="AF11" s="6">
-        <v>9.3594849250000001E-2</v>
-      </c>
-      <c r="AG11" s="6">
-        <v>809848.64199999999</v>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE11">
+        <v>10116788.905001801</v>
+      </c>
+      <c r="AF11">
+        <v>9.0028107312456002E-2</v>
+      </c>
+      <c r="AG11">
+        <v>698215.54548124096</v>
+      </c>
+      <c r="AI11">
+        <v>1989</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL11">
+        <v>9891825.9646243695</v>
+      </c>
+      <c r="AM11">
+        <v>8.83661151431481E-2</v>
+      </c>
+      <c r="AN11">
+        <v>672972.25224758103</v>
+      </c>
+      <c r="AO11">
+        <f t="shared" si="8"/>
+        <v>672.97225224758108</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>1991</v>
       </c>
@@ -6905,26 +7224,48 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AB12" s="6">
+      <c r="AB12">
         <v>1990</v>
       </c>
-      <c r="AC12" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="6">
-        <v>11815603.58</v>
-      </c>
-      <c r="AF12" s="6">
-        <v>0.11513434309999999</v>
-      </c>
-      <c r="AG12" s="6">
-        <v>1089274.1370000001</v>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE12">
+        <v>11775790.427810701</v>
+      </c>
+      <c r="AF12">
+        <v>0.111305668893643</v>
+      </c>
+      <c r="AG12">
+        <v>1003743.60130062</v>
+      </c>
+      <c r="AI12">
+        <v>1990</v>
+      </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL12">
+        <v>11678288.184206299</v>
+      </c>
+      <c r="AM12">
+        <v>0.11014928731809499</v>
+      </c>
+      <c r="AN12">
+        <v>987970.62224276306</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" si="8"/>
+        <v>987.97062224276306</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>1992</v>
       </c>
@@ -6996,26 +7337,48 @@
         <f t="shared" si="7"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="AB13" s="6">
+      <c r="AB13">
         <v>1991</v>
       </c>
-      <c r="AC13" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="6">
-        <v>7476221.3720000004</v>
-      </c>
-      <c r="AF13" s="6">
-        <v>9.2485702099999997E-2</v>
-      </c>
-      <c r="AG13" s="6">
-        <v>546422.21409999998</v>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE13">
+        <v>7445939.04090307</v>
+      </c>
+      <c r="AF13">
+        <v>8.8705720921730402E-2</v>
+      </c>
+      <c r="AG13">
+        <v>500285.38827678002</v>
+      </c>
+      <c r="AI13">
+        <v>1991</v>
+      </c>
+      <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL13">
+        <v>7311751.1875001499</v>
+      </c>
+      <c r="AM13">
+        <v>8.7222083830224603E-2</v>
+      </c>
+      <c r="AN13">
+        <v>485687.28674559901</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="8"/>
+        <v>485.68728674559901</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>1993</v>
       </c>
@@ -7087,26 +7450,48 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AB14" s="6">
+      <c r="AB14">
         <v>1992</v>
       </c>
-      <c r="AC14" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD14" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="6">
-        <v>6628994.2699999996</v>
-      </c>
-      <c r="AF14" s="6">
-        <v>9.1787550979999993E-2</v>
-      </c>
-      <c r="AG14" s="6">
-        <v>480834.69189999998</v>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE14">
+        <v>6546827.2698277598</v>
+      </c>
+      <c r="AF14">
+        <v>9.0185305436490407E-2</v>
+      </c>
+      <c r="AG14">
+        <v>446400.98146390897</v>
+      </c>
+      <c r="AI14">
+        <v>1992</v>
+      </c>
+      <c r="AJ14">
+        <v>1</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL14">
+        <v>6634564.1860064697</v>
+      </c>
+      <c r="AM14">
+        <v>9.0822270196555893E-2</v>
+      </c>
+      <c r="AN14">
+        <v>454581.60373199999</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="8"/>
+        <v>454.58160373199996</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>1994</v>
       </c>
@@ -7178,26 +7563,48 @@
         <f t="shared" si="7"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AB15" s="6">
+      <c r="AB15">
         <v>1993</v>
       </c>
-      <c r="AC15" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="6">
-        <v>7967119.4689999996</v>
-      </c>
-      <c r="AF15" s="6">
-        <v>8.4782010409999997E-2</v>
-      </c>
-      <c r="AG15" s="6">
-        <v>533340.9425</v>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE15">
+        <v>8330213.5413230201</v>
+      </c>
+      <c r="AF15">
+        <v>8.7818462970292499E-2</v>
+      </c>
+      <c r="AG15">
+        <v>557004.33964005602</v>
+      </c>
+      <c r="AI15">
+        <v>1993</v>
+      </c>
+      <c r="AJ15">
+        <v>1</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL15">
+        <v>8137694.9859977104</v>
+      </c>
+      <c r="AM15">
+        <v>8.6247134536135805E-2</v>
+      </c>
+      <c r="AN15">
+        <v>537160.37735474098</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="8"/>
+        <v>537.16037735474094</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>1995</v>
       </c>
@@ -7269,26 +7676,48 @@
         <f t="shared" si="7"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AB16" s="6">
+      <c r="AB16">
         <v>1994</v>
       </c>
-      <c r="AC16" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="6">
-        <v>7513415.4050000003</v>
-      </c>
-      <c r="AF16" s="6">
-        <v>9.1885834870000002E-2</v>
-      </c>
-      <c r="AG16" s="6">
-        <v>545680.20079999999</v>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE16">
+        <v>6959987.1056809397</v>
+      </c>
+      <c r="AF16">
+        <v>8.5940840275377794E-2</v>
+      </c>
+      <c r="AG16">
+        <v>455442.82293776103</v>
+      </c>
+      <c r="AI16">
+        <v>1994</v>
+      </c>
+      <c r="AJ16">
+        <v>1</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL16">
+        <v>7054243.6880622301</v>
+      </c>
+      <c r="AM16">
+        <v>8.6589748074391404E-2</v>
+      </c>
+      <c r="AN16">
+        <v>463033.87823378103</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" si="8"/>
+        <v>463.03387823378102</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>1996</v>
       </c>
@@ -7360,26 +7789,48 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AB17" s="6">
+      <c r="AB17">
         <v>1995</v>
       </c>
-      <c r="AC17" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="6">
-        <v>7258128.1730000004</v>
-      </c>
-      <c r="AF17" s="6">
-        <v>0.106689837</v>
-      </c>
-      <c r="AG17" s="6">
-        <v>620533.62829999998</v>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE17">
+        <v>6657562.4271201203</v>
+      </c>
+      <c r="AF17">
+        <v>0.110232207978609</v>
+      </c>
+      <c r="AG17">
+        <v>568684.68685849803</v>
+      </c>
+      <c r="AI17">
+        <v>1995</v>
+      </c>
+      <c r="AJ17">
+        <v>1</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL17">
+        <v>6728178.6858264999</v>
+      </c>
+      <c r="AM17">
+        <v>0.10930454333310501</v>
+      </c>
+      <c r="AN17">
+        <v>567031.73515942204</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" si="8"/>
+        <v>567.03173515942206</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>1997</v>
       </c>
@@ -7451,26 +7902,48 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AB18" s="6">
+      <c r="AB18">
         <v>1996</v>
       </c>
-      <c r="AC18" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD18" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="6">
-        <v>4268545</v>
-      </c>
-      <c r="AF18" s="6">
-        <v>8.4486989100000007E-2</v>
-      </c>
-      <c r="AG18" s="6">
-        <v>286626.45159999997</v>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE18">
+        <v>4113466.1915370198</v>
+      </c>
+      <c r="AF18">
+        <v>8.1074974578931494E-2</v>
+      </c>
+      <c r="AG18">
+        <v>255236.41400400701</v>
+      </c>
+      <c r="AI18">
+        <v>1996</v>
+      </c>
+      <c r="AJ18">
+        <v>1</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL18">
+        <v>4025393.2838512701</v>
+      </c>
+      <c r="AM18">
+        <v>7.9896864211059002E-2</v>
+      </c>
+      <c r="AN18">
+        <v>247162.74281830099</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" si="8"/>
+        <v>247.16274281830098</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>1998</v>
       </c>
@@ -7542,26 +8015,48 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AB19" s="6">
+      <c r="AB19">
         <v>1997</v>
       </c>
-      <c r="AC19" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="6">
-        <v>4849815.8530000001</v>
-      </c>
-      <c r="AF19" s="6">
-        <v>8.5829065570000002E-2</v>
-      </c>
-      <c r="AG19" s="6">
-        <v>335361.70730000001</v>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE19">
+        <v>4414859.9542365596</v>
+      </c>
+      <c r="AF19">
+        <v>8.2336872763013602E-2</v>
+      </c>
+      <c r="AG19">
+        <v>279018.39018806</v>
+      </c>
+      <c r="AI19">
+        <v>1997</v>
+      </c>
+      <c r="AJ19">
+        <v>1</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL19">
+        <v>4392148.46059711</v>
+      </c>
+      <c r="AM19">
+        <v>8.1506664555286906E-2</v>
+      </c>
+      <c r="AN19">
+        <v>275739.64140045003</v>
+      </c>
+      <c r="AO19">
+        <f t="shared" si="8"/>
+        <v>275.73964140045001</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>1999</v>
       </c>
@@ -7633,26 +8128,48 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AB20" s="6">
+      <c r="AB20">
         <v>1998</v>
       </c>
-      <c r="AC20" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="6">
-        <v>3586785.821</v>
-      </c>
-      <c r="AF20" s="6">
-        <v>8.41546502E-2</v>
-      </c>
-      <c r="AG20" s="6">
-        <v>237400.08720000001</v>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE20">
+        <v>3563405.04861107</v>
+      </c>
+      <c r="AF20">
+        <v>8.51669761548524E-2</v>
+      </c>
+      <c r="AG20">
+        <v>228037.275525195</v>
+      </c>
+      <c r="AI20">
+        <v>1998</v>
+      </c>
+      <c r="AJ20">
+        <v>1</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL20">
+        <v>3503520.7780640698</v>
+      </c>
+      <c r="AM20">
+        <v>8.2947212780592902E-2</v>
+      </c>
+      <c r="AN20">
+        <v>219107.09972789901</v>
+      </c>
+      <c r="AO20">
+        <f t="shared" si="8"/>
+        <v>219.107099727899</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>2000</v>
       </c>
@@ -7724,26 +8241,48 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AB21" s="6">
+      <c r="AB21">
         <v>1999</v>
       </c>
-      <c r="AC21" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="6">
-        <v>5932012.1140000001</v>
-      </c>
-      <c r="AF21" s="6">
-        <v>0.1061988421</v>
-      </c>
-      <c r="AG21" s="6">
-        <v>492856.86099999998</v>
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE21">
+        <v>5488042.8369781002</v>
+      </c>
+      <c r="AF21">
+        <v>9.5794134700267194E-2</v>
+      </c>
+      <c r="AG21">
+        <v>401442.52229446301</v>
+      </c>
+      <c r="AI21">
+        <v>1999</v>
+      </c>
+      <c r="AJ21">
+        <v>1</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL21">
+        <v>5838933.2160320301</v>
+      </c>
+      <c r="AM21">
+        <v>9.7823331202253699E-2</v>
+      </c>
+      <c r="AN21">
+        <v>423341.733840222</v>
+      </c>
+      <c r="AO21">
+        <f t="shared" si="8"/>
+        <v>423.34173384022199</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>2001</v>
       </c>
@@ -7815,26 +8354,48 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AB22" s="6">
+      <c r="AB22">
         <v>2000</v>
       </c>
-      <c r="AC22" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="6">
-        <v>7747348.3640000001</v>
-      </c>
-      <c r="AF22" s="6">
-        <v>9.8574232440000006E-2</v>
-      </c>
-      <c r="AG22" s="6">
-        <v>606188.5098</v>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE22">
+        <v>7219948.2987761302</v>
+      </c>
+      <c r="AF22">
+        <v>9.3892953395817103E-2</v>
+      </c>
+      <c r="AG22">
+        <v>513653.04587072501</v>
+      </c>
+      <c r="AI22">
+        <v>2000</v>
+      </c>
+      <c r="AJ22">
+        <v>1</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL22">
+        <v>7195173.2220185297</v>
+      </c>
+      <c r="AM22">
+        <v>9.2811149779969404E-2</v>
+      </c>
+      <c r="AN22">
+        <v>505955.50131836202</v>
+      </c>
+      <c r="AO22">
+        <f t="shared" si="8"/>
+        <v>505.955501318362</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>2002</v>
       </c>
@@ -7906,26 +8467,48 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AB23" s="6">
+      <c r="AB23">
         <v>2001</v>
       </c>
-      <c r="AC23" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD23" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="6">
-        <v>6168410.6689999998</v>
-      </c>
-      <c r="AF23" s="6">
-        <v>9.1339514339999997E-2</v>
-      </c>
-      <c r="AG23" s="6">
-        <v>446821.37199999997</v>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE23">
+        <v>6191685.1171901403</v>
+      </c>
+      <c r="AF23">
+        <v>9.0186994721029798E-2</v>
+      </c>
+      <c r="AG23">
+        <v>423426.01396123797</v>
+      </c>
+      <c r="AI23">
+        <v>2001</v>
+      </c>
+      <c r="AJ23">
+        <v>1</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL23">
+        <v>6137448.5276932698</v>
+      </c>
+      <c r="AM23">
+        <v>8.8974579032019593E-2</v>
+      </c>
+      <c r="AN23">
+        <v>415615.67931564403</v>
+      </c>
+      <c r="AO23">
+        <f t="shared" si="8"/>
+        <v>415.615679315644</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>2003</v>
       </c>
@@ -7997,26 +8580,48 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AB24" s="6">
+      <c r="AB24">
         <v>2002</v>
       </c>
-      <c r="AC24" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD24" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="6">
-        <v>6878693.6459999997</v>
-      </c>
-      <c r="AF24" s="6">
-        <v>7.6993631290000003E-2</v>
-      </c>
-      <c r="AG24" s="6">
-        <v>425915.51549999998</v>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE24">
+        <v>6892098.68321821</v>
+      </c>
+      <c r="AF24">
+        <v>7.7062875133819098E-2</v>
+      </c>
+      <c r="AG24">
+        <v>408073.731994509</v>
+      </c>
+      <c r="AI24">
+        <v>2002</v>
+      </c>
+      <c r="AJ24">
+        <v>1</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL24">
+        <v>6789873.5838712296</v>
+      </c>
+      <c r="AM24">
+        <v>7.6027281624590298E-2</v>
+      </c>
+      <c r="AN24">
+        <v>398099.78863858897</v>
+      </c>
+      <c r="AO24">
+        <f t="shared" si="8"/>
+        <v>398.09978863858896</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>2004</v>
       </c>
@@ -8088,26 +8693,48 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AB25" s="6">
+      <c r="AB25">
         <v>2003</v>
       </c>
-      <c r="AC25" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD25" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="6">
-        <v>12159712.35</v>
-      </c>
-      <c r="AF25" s="6">
-        <v>9.7876897569999996E-2</v>
-      </c>
-      <c r="AG25" s="6">
-        <v>932790.17249999999</v>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE25">
+        <v>11613100.763209101</v>
+      </c>
+      <c r="AF25">
+        <v>9.2853996523309001E-2</v>
+      </c>
+      <c r="AG25">
+        <v>818584.05182934098</v>
+      </c>
+      <c r="AI25">
+        <v>2003</v>
+      </c>
+      <c r="AJ25">
+        <v>1</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL25">
+        <v>11413025.736960201</v>
+      </c>
+      <c r="AM25">
+        <v>9.11512198230989E-2</v>
+      </c>
+      <c r="AN25">
+        <v>790640.38436517306</v>
+      </c>
+      <c r="AO25">
+        <f t="shared" si="8"/>
+        <v>790.64038436517308</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>2005</v>
       </c>
@@ -8179,26 +8806,48 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AB26" s="6">
+      <c r="AB26">
         <v>2004</v>
       </c>
-      <c r="AC26" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD26" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE26" s="6">
-        <v>5866025.898</v>
-      </c>
-      <c r="AF26" s="6">
-        <v>8.7599224079999996E-2</v>
-      </c>
-      <c r="AG26" s="6">
-        <v>407471.88880000002</v>
+      <c r="AC26">
+        <v>1</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE26">
+        <v>5815078.7181289298</v>
+      </c>
+      <c r="AF26">
+        <v>8.5461561017027898E-2</v>
+      </c>
+      <c r="AG26">
+        <v>376023.15962767001</v>
+      </c>
+      <c r="AI26">
+        <v>2004</v>
+      </c>
+      <c r="AJ26">
+        <v>1</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL26">
+        <v>5755996.4815546796</v>
+      </c>
+      <c r="AM26">
+        <v>8.4525132809161296E-2</v>
+      </c>
+      <c r="AN26">
+        <v>369869.62057793897</v>
+      </c>
+      <c r="AO26">
+        <f t="shared" si="8"/>
+        <v>369.86962057793897</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>2006</v>
       </c>
@@ -8270,26 +8919,48 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AB27" s="6">
+      <c r="AB27">
         <v>2005</v>
       </c>
-      <c r="AC27" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="6">
-        <v>7272764.5350000001</v>
-      </c>
-      <c r="AF27" s="6">
-        <v>9.3513964470000002E-2</v>
-      </c>
-      <c r="AG27" s="6">
-        <v>542340.51459999999</v>
+      <c r="AC27">
+        <v>1</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE27">
+        <v>7036702.3284091298</v>
+      </c>
+      <c r="AF27">
+        <v>9.0271517526408898E-2</v>
+      </c>
+      <c r="AG27">
+        <v>483078.304016546</v>
+      </c>
+      <c r="AI27">
+        <v>2005</v>
+      </c>
+      <c r="AJ27">
+        <v>1</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL27">
+        <v>6837731.6939721601</v>
+      </c>
+      <c r="AM27">
+        <v>8.7697521464814202E-2</v>
+      </c>
+      <c r="AN27">
+        <v>458184.47040454397</v>
+      </c>
+      <c r="AO27">
+        <f t="shared" si="8"/>
+        <v>458.18447040454396</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>2007</v>
       </c>
@@ -8361,26 +9032,48 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AB28" s="6">
+      <c r="AB28">
         <v>2006</v>
       </c>
-      <c r="AC28" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD28" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="6">
-        <v>4251372.1189999999</v>
-      </c>
-      <c r="AF28" s="6">
-        <v>9.0761777000000002E-2</v>
-      </c>
-      <c r="AG28" s="6">
-        <v>308469.19079999998</v>
+      <c r="AC28">
+        <v>1</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE28">
+        <v>4143654.4808356301</v>
+      </c>
+      <c r="AF28">
+        <v>8.5745300938500094E-2</v>
+      </c>
+      <c r="AG28">
+        <v>272970.37859200098</v>
+      </c>
+      <c r="AI28">
+        <v>2006</v>
+      </c>
+      <c r="AJ28">
+        <v>1</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL28">
+        <v>4181738.4053412299</v>
+      </c>
+      <c r="AM28">
+        <v>8.5843308619097503E-2</v>
+      </c>
+      <c r="AN28">
+        <v>275080.707555209</v>
+      </c>
+      <c r="AO28">
+        <f t="shared" si="8"/>
+        <v>275.08070755520902</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>2008</v>
       </c>
@@ -8452,26 +9145,48 @@
         <f t="shared" si="7"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="AB29" s="6">
+      <c r="AB29">
         <v>2007</v>
       </c>
-      <c r="AC29" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD29" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="6">
-        <v>6835196.8650000002</v>
-      </c>
-      <c r="AF29" s="6">
-        <v>0.11378431</v>
-      </c>
-      <c r="AG29" s="6">
-        <v>612583.16029999999</v>
+      <c r="AC29">
+        <v>1</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE29">
+        <v>6793668.8586497698</v>
+      </c>
+      <c r="AF29">
+        <v>0.10862844413086301</v>
+      </c>
+      <c r="AG29">
+        <v>557811.94714663702</v>
+      </c>
+      <c r="AI29">
+        <v>2007</v>
+      </c>
+      <c r="AJ29">
+        <v>1</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL29">
+        <v>6819598.2644636799</v>
+      </c>
+      <c r="AM29">
+        <v>0.10810137140914799</v>
+      </c>
+      <c r="AN29">
+        <v>554931.32421558595</v>
+      </c>
+      <c r="AO29">
+        <f t="shared" si="8"/>
+        <v>554.93132421558596</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>2009</v>
       </c>
@@ -8543,26 +9258,48 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AB30" s="6">
+      <c r="AB30">
         <v>2008</v>
       </c>
-      <c r="AC30" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD30" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE30" s="6">
-        <v>4830893.5310000004</v>
-      </c>
-      <c r="AF30" s="6">
-        <v>0.11877088399999999</v>
-      </c>
-      <c r="AG30" s="6">
-        <v>449438.26459999999</v>
+      <c r="AC30">
+        <v>1</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE30">
+        <v>4257538.1644311398</v>
+      </c>
+      <c r="AF30">
+        <v>0.10430063477745</v>
+      </c>
+      <c r="AG30">
+        <v>337511.61964785698</v>
+      </c>
+      <c r="AI30">
+        <v>2008</v>
+      </c>
+      <c r="AJ30">
+        <v>1</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL30">
+        <v>4361866.4167406904</v>
+      </c>
+      <c r="AM30">
+        <v>0.10454636131374299</v>
+      </c>
+      <c r="AN30">
+        <v>341248.63037334802</v>
+      </c>
+      <c r="AO30">
+        <f t="shared" si="8"/>
+        <v>341.24863037334802</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>2010</v>
       </c>
@@ -8634,26 +9371,48 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AB31" s="6">
+      <c r="AB31">
         <v>2009</v>
       </c>
-      <c r="AC31" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD31" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE31" s="6">
-        <v>2888205.8960000002</v>
-      </c>
-      <c r="AF31" s="6">
-        <v>0.1140256052</v>
-      </c>
-      <c r="AG31" s="6">
-        <v>262327.94280000002</v>
+      <c r="AC31">
+        <v>1</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE31">
+        <v>2842006.9297865899</v>
+      </c>
+      <c r="AF31">
+        <v>0.109105044942509</v>
+      </c>
+      <c r="AG31">
+        <v>238253.72504844001</v>
+      </c>
+      <c r="AI31">
+        <v>2009</v>
+      </c>
+      <c r="AJ31">
+        <v>1</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL31">
+        <v>2853736.7158731502</v>
+      </c>
+      <c r="AM31">
+        <v>0.108639165184042</v>
+      </c>
+      <c r="AN31">
+        <v>235804.53854947901</v>
+      </c>
+      <c r="AO31">
+        <f t="shared" si="8"/>
+        <v>235.80453854947902</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>2011</v>
       </c>
@@ -8725,26 +9484,48 @@
         <f t="shared" si="7"/>
         <v>0.99999999999999978</v>
       </c>
-      <c r="AB32" s="6">
+      <c r="AB32">
         <v>2010</v>
       </c>
-      <c r="AC32" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD32" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE32" s="6">
-        <v>5328915.6809999999</v>
-      </c>
-      <c r="AF32" s="6">
-        <v>0.10960171539999999</v>
-      </c>
-      <c r="AG32" s="6">
-        <v>467871.30300000001</v>
+      <c r="AC32">
+        <v>1</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE32">
+        <v>5183430.93453936</v>
+      </c>
+      <c r="AF32">
+        <v>0.102272501591677</v>
+      </c>
+      <c r="AG32">
+        <v>408040.15373840998</v>
+      </c>
+      <c r="AI32">
+        <v>2010</v>
+      </c>
+      <c r="AJ32">
+        <v>1</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL32">
+        <v>5236769.7488687905</v>
+      </c>
+      <c r="AM32">
+        <v>0.102239122260879</v>
+      </c>
+      <c r="AN32">
+        <v>410264.11686923797</v>
+      </c>
+      <c r="AO32">
+        <f t="shared" si="8"/>
+        <v>410.26411686923797</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>2012</v>
       </c>
@@ -8816,26 +9597,48 @@
         <f t="shared" si="7"/>
         <v>0.99999999999999978</v>
       </c>
-      <c r="AB33" s="6">
+      <c r="AB33">
         <v>2011</v>
       </c>
-      <c r="AC33" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD33" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE33" s="6">
-        <v>4485066.7170000002</v>
-      </c>
-      <c r="AF33" s="6">
-        <v>9.4552387350000003E-2</v>
-      </c>
-      <c r="AG33" s="6">
-        <v>334651.05440000002</v>
+      <c r="AC33">
+        <v>1</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE33">
+        <v>4653986.0295329597</v>
+      </c>
+      <c r="AF33">
+        <v>9.6446386232719297E-2</v>
+      </c>
+      <c r="AG33">
+        <v>336788.98687840498</v>
+      </c>
+      <c r="AI33">
+        <v>2011</v>
+      </c>
+      <c r="AJ33">
+        <v>1</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL33">
+        <v>4541405.4698419403</v>
+      </c>
+      <c r="AM33">
+        <v>9.4158357201684598E-2</v>
+      </c>
+      <c r="AN33">
+        <v>322589.16726487799</v>
+      </c>
+      <c r="AO33">
+        <f t="shared" si="8"/>
+        <v>322.58916726487797</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>2013</v>
       </c>
@@ -8907,26 +9710,48 @@
         <f t="shared" si="7"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AB34" s="6">
+      <c r="AB34">
         <v>2012</v>
       </c>
-      <c r="AC34" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD34" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE34" s="6">
-        <v>5076469.0269999998</v>
-      </c>
-      <c r="AF34" s="6">
-        <v>8.9200893769999998E-2</v>
-      </c>
-      <c r="AG34" s="6">
-        <v>358017.09830000001</v>
+      <c r="AC34">
+        <v>1</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE34">
+        <v>4929875.7829360301</v>
+      </c>
+      <c r="AF34">
+        <v>8.4441745108968194E-2</v>
+      </c>
+      <c r="AG34">
+        <v>319429.92390231398</v>
+      </c>
+      <c r="AI34">
+        <v>2012</v>
+      </c>
+      <c r="AJ34">
+        <v>1</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL34">
+        <v>5219581.4507835899</v>
+      </c>
+      <c r="AM34">
+        <v>8.7949114469856995E-2</v>
+      </c>
+      <c r="AN34">
+        <v>344122.25003430399</v>
+      </c>
+      <c r="AO34">
+        <f t="shared" si="8"/>
+        <v>344.12225003430399</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>2014</v>
       </c>
@@ -8998,26 +9823,48 @@
         <f t="shared" si="7"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="AB35" s="6">
+      <c r="AB35">
         <v>2013</v>
       </c>
-      <c r="AC35" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD35" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE35" s="6">
-        <v>6475221.426</v>
-      </c>
-      <c r="AF35" s="6">
-        <v>8.7999406880000006E-2</v>
-      </c>
-      <c r="AG35" s="6">
-        <v>458201.88770000002</v>
+      <c r="AC35">
+        <v>1</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE35">
+        <v>6742014.72830687</v>
+      </c>
+      <c r="AF35">
+        <v>8.5123092654958502E-2</v>
+      </c>
+      <c r="AG35">
+        <v>439561.33208463102</v>
+      </c>
+      <c r="AI35">
+        <v>2013</v>
+      </c>
+      <c r="AJ35">
+        <v>1</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL35">
+        <v>6794755.1855584998</v>
+      </c>
+      <c r="AM35">
+        <v>8.5443418534882007E-2</v>
+      </c>
+      <c r="AN35">
+        <v>443192.007083537</v>
+      </c>
+      <c r="AO35">
+        <f t="shared" si="8"/>
+        <v>443.19200708353702</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>2015</v>
       </c>
@@ -9077,26 +9924,48 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AB36" s="6">
+      <c r="AB36">
         <v>2014</v>
       </c>
-      <c r="AC36" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD36" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE36" s="6">
-        <v>12007997.039999999</v>
-      </c>
-      <c r="AF36" s="6">
-        <v>7.7635261050000001E-2</v>
-      </c>
-      <c r="AG36" s="6">
-        <v>737664.8469</v>
+      <c r="AC36">
+        <v>1</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE36">
+        <v>12009917.371339399</v>
+      </c>
+      <c r="AF36">
+        <v>7.6380073101167595E-2</v>
+      </c>
+      <c r="AG36">
+        <v>691610.34325281903</v>
+      </c>
+      <c r="AI36">
+        <v>2014</v>
+      </c>
+      <c r="AJ36">
+        <v>1</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL36">
+        <v>11834321.1636214</v>
+      </c>
+      <c r="AM36">
+        <v>7.5314208342674202E-2</v>
+      </c>
+      <c r="AN36">
+        <v>675458.045407539</v>
+      </c>
+      <c r="AO36">
+        <f t="shared" si="8"/>
+        <v>675.45804540753898</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>2016</v>
       </c>
@@ -9156,26 +10025,48 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AB37" s="6">
+      <c r="AB37">
         <v>2015</v>
       </c>
-      <c r="AC37" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD37" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE37" s="6">
-        <v>10857080.560000001</v>
-      </c>
-      <c r="AF37" s="6">
-        <v>8.3263697519999999E-2</v>
-      </c>
-      <c r="AG37" s="6">
-        <v>693884.7929</v>
+      <c r="AC37">
+        <v>1</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE37">
+        <v>11418062.7282086</v>
+      </c>
+      <c r="AF37">
+        <v>8.5922053561706194E-2</v>
+      </c>
+      <c r="AG37">
+        <v>718253.769290347</v>
+      </c>
+      <c r="AI37">
+        <v>2015</v>
+      </c>
+      <c r="AJ37">
+        <v>1</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL37">
+        <v>11283488.5558565</v>
+      </c>
+      <c r="AM37">
+        <v>8.38263613671099E-2</v>
+      </c>
+      <c r="AN37">
+        <v>697764.96444899205</v>
+      </c>
+      <c r="AO37">
+        <f t="shared" si="8"/>
+        <v>697.76496444899203</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>2017</v>
       </c>
@@ -9235,26 +10126,48 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AB38" s="6">
+      <c r="AB38">
         <v>2016</v>
       </c>
-      <c r="AC38" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD38" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE38" s="6">
-        <v>9539423.6669999994</v>
-      </c>
-      <c r="AF38" s="6">
-        <v>0.1148983927</v>
-      </c>
-      <c r="AG38" s="6">
-        <v>803391.30469999998</v>
+      <c r="AC38">
+        <v>1</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE38">
+        <v>8970639.9857935291</v>
+      </c>
+      <c r="AF38">
+        <v>0.108871822371958</v>
+      </c>
+      <c r="AG38">
+        <v>696434.94405399903</v>
+      </c>
+      <c r="AI38">
+        <v>2016</v>
+      </c>
+      <c r="AJ38">
+        <v>1</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL38">
+        <v>8913874.7096434291</v>
+      </c>
+      <c r="AM38">
+        <v>0.10726363852856199</v>
+      </c>
+      <c r="AN38">
+        <v>686233.54865778401</v>
+      </c>
+      <c r="AO38">
+        <f t="shared" si="8"/>
+        <v>686.23354865778401</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>2018</v>
       </c>
@@ -9314,26 +10227,48 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AB39" s="6">
+      <c r="AB39">
         <v>2017</v>
       </c>
-      <c r="AC39" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD39" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE39" s="6">
-        <v>8968209.7829999998</v>
-      </c>
-      <c r="AF39" s="6">
-        <v>7.0220806450000006E-2</v>
-      </c>
-      <c r="AG39" s="6">
-        <v>497521.67249999999</v>
+      <c r="AC39">
+        <v>1</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE39">
+        <v>8971577.2269163094</v>
+      </c>
+      <c r="AF39">
+        <v>6.7992511685443902E-2</v>
+      </c>
+      <c r="AG39">
+        <v>463168.18265793403</v>
+      </c>
+      <c r="AI39">
+        <v>2017</v>
+      </c>
+      <c r="AJ39">
+        <v>1</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL39">
+        <v>8987916.4286736008</v>
+      </c>
+      <c r="AM39">
+        <v>6.78907075537383E-2</v>
+      </c>
+      <c r="AN39">
+        <v>463337.50427337899</v>
+      </c>
+      <c r="AO39">
+        <f t="shared" si="8"/>
+        <v>463.33750427337901</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>2019</v>
       </c>
@@ -9390,26 +10325,48 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AB40" s="6">
+      <c r="AB40">
         <v>2018</v>
       </c>
-      <c r="AC40" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD40" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE40" s="6">
-        <v>5823455.8190000001</v>
-      </c>
-      <c r="AF40" s="6">
-        <v>9.2133390659999995E-2</v>
-      </c>
-      <c r="AG40" s="6">
-        <v>408100.86629999999</v>
+      <c r="AC40">
+        <v>1</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE40">
+        <v>5409053.0102454498</v>
+      </c>
+      <c r="AF40">
+        <v>8.0944482713753693E-2</v>
+      </c>
+      <c r="AG40">
+        <v>324484.271869616</v>
+      </c>
+      <c r="AI40">
+        <v>2018</v>
+      </c>
+      <c r="AJ40">
+        <v>1</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL40">
+        <v>5321043.6345522599</v>
+      </c>
+      <c r="AM40">
+        <v>7.9898919540948604E-2</v>
+      </c>
+      <c r="AN40">
+        <v>315429.66204482003</v>
+      </c>
+      <c r="AO40">
+        <f t="shared" si="8"/>
+        <v>315.42966204482002</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>1982</v>
       </c>
@@ -9450,26 +10407,48 @@
       <c r="T41">
         <v>327101.7218</v>
       </c>
-      <c r="AB41" s="6">
+      <c r="AB41">
         <v>2019</v>
       </c>
-      <c r="AC41" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD41" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE41" s="6">
-        <v>9511702.3949999996</v>
-      </c>
-      <c r="AF41" s="6">
-        <v>6.9846437479999995E-2</v>
-      </c>
-      <c r="AG41" s="6">
-        <v>522986.02289999998</v>
+      <c r="AC41">
+        <v>1</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE41">
+        <v>9387064.3019769304</v>
+      </c>
+      <c r="AF41">
+        <v>6.6946490853749804E-2</v>
+      </c>
+      <c r="AG41">
+        <v>474728.29848475102</v>
+      </c>
+      <c r="AI41">
+        <v>2019</v>
+      </c>
+      <c r="AJ41">
+        <v>1</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL41">
+        <v>9213093.0284570791</v>
+      </c>
+      <c r="AM41">
+        <v>6.5898553855731901E-2</v>
+      </c>
+      <c r="AN41">
+        <v>460604.38311766298</v>
+      </c>
+      <c r="AO41">
+        <f t="shared" si="8"/>
+        <v>460.60438311766296</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>1983</v>
       </c>
@@ -9522,26 +10501,48 @@
         <f>STDEV(W3:W40)</f>
         <v>0.33353409307369092</v>
       </c>
-      <c r="AB42" s="6">
-        <v>1982</v>
-      </c>
-      <c r="AC42" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD42" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE42" s="6">
-        <v>3927257.8509999998</v>
-      </c>
-      <c r="AF42" s="6">
-        <v>9.7523136440000005E-2</v>
-      </c>
-      <c r="AG42" s="6">
-        <v>306748.25099999999</v>
+      <c r="AB42">
+        <v>2020</v>
+      </c>
+      <c r="AC42">
+        <v>1</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI42">
+        <v>2020</v>
+      </c>
+      <c r="AJ42">
+        <v>1</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO42" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>1984</v>
       </c>
@@ -9594,26 +10595,48 @@
         <f>AVERAGE(W3:W40)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="AB43" s="6">
-        <v>1983</v>
-      </c>
-      <c r="AC43" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD43" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE43" s="6">
-        <v>9237433.1129999999</v>
-      </c>
-      <c r="AF43" s="6">
-        <v>8.6621919909999998E-2</v>
-      </c>
-      <c r="AG43" s="6">
-        <v>630260.71160000004</v>
+      <c r="AB43">
+        <v>2021</v>
+      </c>
+      <c r="AC43">
+        <v>1</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE43">
+        <v>4857441.7723923596</v>
+      </c>
+      <c r="AF43">
+        <v>7.3209861368797299E-2</v>
+      </c>
+      <c r="AG43">
+        <v>264693.06152329798</v>
+      </c>
+      <c r="AI43">
+        <v>2021</v>
+      </c>
+      <c r="AJ43">
+        <v>1</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL43">
+        <v>4744826.86043684</v>
+      </c>
+      <c r="AM43">
+        <v>7.1474955477755397E-2</v>
+      </c>
+      <c r="AN43">
+        <v>253968.51278272099</v>
+      </c>
+      <c r="AO43">
+        <f t="shared" si="8"/>
+        <v>253.96851278272101</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>1985</v>
       </c>
@@ -9650,26 +10673,44 @@
       <c r="T44">
         <v>732426.35750000004</v>
       </c>
-      <c r="AB44" s="6">
-        <v>1984</v>
-      </c>
-      <c r="AC44" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD44" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE44" s="6">
-        <v>6838277.6730000004</v>
-      </c>
-      <c r="AF44" s="6">
-        <v>9.3287252789999997E-2</v>
-      </c>
-      <c r="AG44" s="6">
-        <v>504332.30709999998</v>
+      <c r="AB44">
+        <v>1982</v>
+      </c>
+      <c r="AC44">
+        <v>1</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE44">
+        <v>3824559.2543632998</v>
+      </c>
+      <c r="AF44">
+        <v>9.4422428122580407E-2</v>
+      </c>
+      <c r="AG44">
+        <v>278273.42106802203</v>
+      </c>
+      <c r="AI44">
+        <v>1982</v>
+      </c>
+      <c r="AJ44">
+        <v>1</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL44">
+        <v>3804604.7556918198</v>
+      </c>
+      <c r="AM44">
+        <v>9.3827157142716E-2</v>
+      </c>
+      <c r="AN44">
+        <v>274909.65309483203</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>1986</v>
       </c>
@@ -9706,26 +10747,44 @@
       <c r="T45">
         <v>636795.98389999999</v>
       </c>
-      <c r="AB45" s="6">
-        <v>1985</v>
-      </c>
-      <c r="AC45" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD45" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE45" s="6">
-        <v>7712541.7989999996</v>
-      </c>
-      <c r="AF45" s="6">
-        <v>0.1038139199</v>
-      </c>
-      <c r="AG45" s="6">
-        <v>625632.49910000002</v>
+      <c r="AB45">
+        <v>1983</v>
+      </c>
+      <c r="AC45">
+        <v>1</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE45">
+        <v>9249171.39864932</v>
+      </c>
+      <c r="AF45">
+        <v>8.9981424065543603E-2</v>
+      </c>
+      <c r="AG45">
+        <v>625256.46381609398</v>
+      </c>
+      <c r="AI45">
+        <v>1983</v>
+      </c>
+      <c r="AJ45">
+        <v>1</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL45">
+        <v>9088671.1844826695</v>
+      </c>
+      <c r="AM45">
+        <v>8.7662289308154798E-2</v>
+      </c>
+      <c r="AN45">
+        <v>602571.35971058998</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>1987</v>
       </c>
@@ -9762,26 +10821,44 @@
       <c r="T46">
         <v>714983.97030000004</v>
       </c>
-      <c r="AB46" s="6">
-        <v>1986</v>
-      </c>
-      <c r="AC46" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD46" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE46" s="6">
-        <v>7219068.983</v>
-      </c>
-      <c r="AF46" s="6">
-        <v>9.7661641800000004E-2</v>
-      </c>
-      <c r="AG46" s="6">
-        <v>554208.15330000001</v>
+      <c r="AB46">
+        <v>1984</v>
+      </c>
+      <c r="AC46">
+        <v>1</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE46">
+        <v>6427876.9991345499</v>
+      </c>
+      <c r="AF46">
+        <v>8.9741362907683503E-2</v>
+      </c>
+      <c r="AG46">
+        <v>435468.21903933102</v>
+      </c>
+      <c r="AI46">
+        <v>1984</v>
+      </c>
+      <c r="AJ46">
+        <v>1</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL46">
+        <v>6379912.8676399495</v>
+      </c>
+      <c r="AM46">
+        <v>8.9351565089429402E-2</v>
+      </c>
+      <c r="AN46">
+        <v>431180.90556967602</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>1988</v>
       </c>
@@ -9818,26 +10895,44 @@
       <c r="T47">
         <v>1136945.825</v>
       </c>
-      <c r="AB47" s="6">
-        <v>1987</v>
-      </c>
-      <c r="AC47" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD47" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE47" s="6">
-        <v>7613277.4939999999</v>
-      </c>
-      <c r="AF47" s="6">
-        <v>0.1048566732</v>
-      </c>
-      <c r="AG47" s="6">
-        <v>636656.02480000001</v>
+      <c r="AB47">
+        <v>1985</v>
+      </c>
+      <c r="AC47">
+        <v>1</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE47">
+        <v>7596636.1694681803</v>
+      </c>
+      <c r="AF47">
+        <v>0.103722665202784</v>
+      </c>
+      <c r="AG47">
+        <v>585052.03029229306</v>
+      </c>
+      <c r="AI47">
+        <v>1985</v>
+      </c>
+      <c r="AJ47">
+        <v>1</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL47">
+        <v>7577799.46823831</v>
+      </c>
+      <c r="AM47">
+        <v>0.10358936628413901</v>
+      </c>
+      <c r="AN47">
+        <v>584652.85055629595</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>1989</v>
       </c>
@@ -9874,26 +10969,44 @@
       <c r="T48">
         <v>831167.08530000004</v>
       </c>
-      <c r="AB48" s="6">
-        <v>1988</v>
-      </c>
-      <c r="AC48" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD48" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE48" s="6">
-        <v>11762194.18</v>
-      </c>
-      <c r="AF48" s="6">
-        <v>0.11267885480000001</v>
-      </c>
-      <c r="AG48" s="6">
-        <v>1065242.952</v>
+      <c r="AB48">
+        <v>1986</v>
+      </c>
+      <c r="AC48">
+        <v>1</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE48">
+        <v>7043736.8237425704</v>
+      </c>
+      <c r="AF48">
+        <v>9.5752986812235097E-2</v>
+      </c>
+      <c r="AG48">
+        <v>507712.77767177398</v>
+      </c>
+      <c r="AI48">
+        <v>1986</v>
+      </c>
+      <c r="AJ48">
+        <v>1</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL48">
+        <v>7229328.8715586504</v>
+      </c>
+      <c r="AM48">
+        <v>9.8048727266855706E-2</v>
+      </c>
+      <c r="AN48">
+        <v>530112.13249494904</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>1990</v>
       </c>
@@ -9930,26 +11043,44 @@
       <c r="T49">
         <v>1378934.273</v>
       </c>
-      <c r="AB49" s="6">
-        <v>1989</v>
-      </c>
-      <c r="AC49" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD49" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE49" s="6">
-        <v>10654900.84</v>
-      </c>
-      <c r="AF49" s="6">
-        <v>9.4038254949999997E-2</v>
-      </c>
-      <c r="AG49" s="6">
-        <v>808887.30759999994</v>
+      <c r="AB49">
+        <v>1987</v>
+      </c>
+      <c r="AC49">
+        <v>1</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE49">
+        <v>7734701.2455725502</v>
+      </c>
+      <c r="AF49">
+        <v>0.105905110519789</v>
+      </c>
+      <c r="AG49">
+        <v>625655.29649531096</v>
+      </c>
+      <c r="AI49">
+        <v>1987</v>
+      </c>
+      <c r="AJ49">
+        <v>1</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL49">
+        <v>7498265.1699286597</v>
+      </c>
+      <c r="AM49">
+        <v>0.10205281386087101</v>
+      </c>
+      <c r="AN49">
+        <v>587491.51953315898</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>1991</v>
       </c>
@@ -9986,26 +11117,44 @@
       <c r="T50">
         <v>606387.54200000002</v>
       </c>
-      <c r="AB50" s="6">
-        <v>1990</v>
-      </c>
-      <c r="AC50" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD50" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE50" s="6">
-        <v>11759609.640000001</v>
-      </c>
-      <c r="AF50" s="6">
-        <v>0.1154177941</v>
-      </c>
-      <c r="AG50" s="6">
-        <v>1088476.926</v>
+      <c r="AB50">
+        <v>1988</v>
+      </c>
+      <c r="AC50">
+        <v>1</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE50">
+        <v>11548415.4679603</v>
+      </c>
+      <c r="AF50">
+        <v>0.10871542707394299</v>
+      </c>
+      <c r="AG50">
+        <v>964237.16571621899</v>
+      </c>
+      <c r="AI50">
+        <v>1988</v>
+      </c>
+      <c r="AJ50">
+        <v>1</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL50">
+        <v>11678158.6671081</v>
+      </c>
+      <c r="AM50">
+        <v>0.10882299647664601</v>
+      </c>
+      <c r="AN50">
+        <v>976037.17339964805</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>1992</v>
       </c>
@@ -10042,26 +11191,44 @@
       <c r="T51">
         <v>596989.4081</v>
       </c>
-      <c r="AB51" s="6">
-        <v>1991</v>
-      </c>
-      <c r="AC51" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD51" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE51" s="6">
-        <v>7324854.3729999997</v>
-      </c>
-      <c r="AF51" s="6">
-        <v>9.3953076600000004E-2</v>
-      </c>
-      <c r="AG51" s="6">
-        <v>545501.67039999994</v>
+      <c r="AB51">
+        <v>1989</v>
+      </c>
+      <c r="AC51">
+        <v>1</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE51">
+        <v>9924536.2857258692</v>
+      </c>
+      <c r="AF51">
+        <v>9.0545175597050401E-2</v>
+      </c>
+      <c r="AG51">
+        <v>693527.96584701003</v>
+      </c>
+      <c r="AI51">
+        <v>1989</v>
+      </c>
+      <c r="AJ51">
+        <v>1</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL51">
+        <v>9666781.2708438691</v>
+      </c>
+      <c r="AM51">
+        <v>8.8932891003876302E-2</v>
+      </c>
+      <c r="AN51">
+        <v>666906.44447572902</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>1993</v>
       </c>
@@ -10098,26 +11265,44 @@
       <c r="T52">
         <v>625280.56050000002</v>
       </c>
-      <c r="AB52" s="6">
-        <v>1992</v>
-      </c>
-      <c r="AC52" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD52" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE52" s="6">
-        <v>6570176.4670000002</v>
-      </c>
-      <c r="AF52" s="6">
-        <v>9.2021802119999996E-2</v>
-      </c>
-      <c r="AG52" s="6">
-        <v>479365.28820000001</v>
+      <c r="AB52">
+        <v>1990</v>
+      </c>
+      <c r="AC52">
+        <v>1</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE52">
+        <v>11645601.2383919</v>
+      </c>
+      <c r="AF52">
+        <v>0.111822233327475</v>
+      </c>
+      <c r="AG52">
+        <v>1001365.47327947</v>
+      </c>
+      <c r="AI52">
+        <v>1990</v>
+      </c>
+      <c r="AJ52">
+        <v>1</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL52">
+        <v>11554380.945930099</v>
+      </c>
+      <c r="AM52">
+        <v>0.110667471681667</v>
+      </c>
+      <c r="AN52">
+        <v>985715.78682665306</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>1994</v>
       </c>
@@ -10154,26 +11339,44 @@
       <c r="T53">
         <v>680619.79830000002</v>
       </c>
-      <c r="AB53" s="6">
-        <v>1993</v>
-      </c>
-      <c r="AC53" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD53" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE53" s="6">
-        <v>7820427.7970000003</v>
-      </c>
-      <c r="AF53" s="6">
-        <v>8.5141359400000005E-2</v>
-      </c>
-      <c r="AG53" s="6">
-        <v>529459.63459999999</v>
+      <c r="AB53">
+        <v>1991</v>
+      </c>
+      <c r="AC53">
+        <v>1</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE53">
+        <v>7255063.7755724099</v>
+      </c>
+      <c r="AF53">
+        <v>9.0241425359680993E-2</v>
+      </c>
+      <c r="AG53">
+        <v>498380.81844464497</v>
+      </c>
+      <c r="AI53">
+        <v>1991</v>
+      </c>
+      <c r="AJ53">
+        <v>1</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL53">
+        <v>7122409.1152572902</v>
+      </c>
+      <c r="AM53">
+        <v>8.8741797831683497E-2</v>
+      </c>
+      <c r="AN53">
+        <v>483712.73658252897</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>1995</v>
       </c>
@@ -10210,26 +11413,44 @@
       <c r="T54">
         <v>789477.30090000003</v>
       </c>
-      <c r="AB54" s="6">
-        <v>1994</v>
-      </c>
-      <c r="AC54" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD54" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE54" s="6">
-        <v>7454211.3080000002</v>
-      </c>
-      <c r="AF54" s="6">
-        <v>9.2160869830000006E-2</v>
-      </c>
-      <c r="AG54" s="6">
-        <v>544677.05390000006</v>
+      <c r="AB54">
+        <v>1992</v>
+      </c>
+      <c r="AC54">
+        <v>1</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE54">
+        <v>6441846.4116235701</v>
+      </c>
+      <c r="AF54">
+        <v>9.0381562035323201E-2</v>
+      </c>
+      <c r="AG54">
+        <v>442987.51206214703</v>
+      </c>
+      <c r="AI54">
+        <v>1992</v>
+      </c>
+      <c r="AJ54">
+        <v>1</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL54">
+        <v>6544030.2779594604</v>
+      </c>
+      <c r="AM54">
+        <v>9.1062683156525506E-2</v>
+      </c>
+      <c r="AN54">
+        <v>451873.80462019698</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>1996</v>
       </c>
@@ -10266,26 +11487,44 @@
       <c r="T55">
         <v>333406.28570000001</v>
       </c>
-      <c r="AB55" s="6">
-        <v>1995</v>
-      </c>
-      <c r="AC55" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD55" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE55" s="6">
-        <v>7215919.7300000004</v>
-      </c>
-      <c r="AF55" s="6">
-        <v>0.1069981805</v>
-      </c>
-      <c r="AG55" s="6">
-        <v>620053.85250000004</v>
+      <c r="AB55">
+        <v>1993</v>
+      </c>
+      <c r="AC55">
+        <v>1</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE55">
+        <v>8178376.1786248898</v>
+      </c>
+      <c r="AF55">
+        <v>8.8108093579990193E-2</v>
+      </c>
+      <c r="AG55">
+        <v>552626.27441450395</v>
+      </c>
+      <c r="AI55">
+        <v>1993</v>
+      </c>
+      <c r="AJ55">
+        <v>1</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL55">
+        <v>7971935.2899142699</v>
+      </c>
+      <c r="AM55">
+        <v>8.6585721095201004E-2</v>
+      </c>
+      <c r="AN55">
+        <v>532223.13975816197</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>1997</v>
       </c>
@@ -10322,26 +11561,44 @@
       <c r="T56">
         <v>380366.22659999999</v>
       </c>
-      <c r="AB56" s="6">
-        <v>1996</v>
-      </c>
-      <c r="AC56" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD56" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE56" s="6">
-        <v>4148375.034</v>
-      </c>
-      <c r="AF56" s="6">
-        <v>8.5001004399999996E-2</v>
-      </c>
-      <c r="AG56" s="6">
-        <v>283235.7046</v>
+      <c r="AB56">
+        <v>1994</v>
+      </c>
+      <c r="AC56">
+        <v>1</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE56">
+        <v>6878011.3580884999</v>
+      </c>
+      <c r="AF56">
+        <v>8.6166311773497095E-2</v>
+      </c>
+      <c r="AG56">
+        <v>453461.653992593</v>
+      </c>
+      <c r="AI56">
+        <v>1994</v>
+      </c>
+      <c r="AJ56">
+        <v>1</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL56">
+        <v>6981937.2535925498</v>
+      </c>
+      <c r="AM56">
+        <v>8.6837093858549E-2</v>
+      </c>
+      <c r="AN56">
+        <v>461456.91291096498</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>1998</v>
       </c>
@@ -10378,26 +11635,44 @@
       <c r="T57">
         <v>265219.95779999997</v>
       </c>
-      <c r="AB57" s="6">
-        <v>1997</v>
-      </c>
-      <c r="AC57" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD57" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE57" s="6">
-        <v>4768999.2039999999</v>
-      </c>
-      <c r="AF57" s="6">
-        <v>8.6224293790000003E-2</v>
-      </c>
-      <c r="AG57" s="6">
-        <v>333228.14189999999</v>
+      <c r="AB57">
+        <v>1995</v>
+      </c>
+      <c r="AC57">
+        <v>1</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE57">
+        <v>6585991.2116882401</v>
+      </c>
+      <c r="AF57">
+        <v>0.110702843019527</v>
+      </c>
+      <c r="AG57">
+        <v>567488.77426099905</v>
+      </c>
+      <c r="AI57">
+        <v>1995</v>
+      </c>
+      <c r="AJ57">
+        <v>1</v>
+      </c>
+      <c r="AK57" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL57">
+        <v>6669090.0482424498</v>
+      </c>
+      <c r="AM57">
+        <v>0.109712756735291</v>
+      </c>
+      <c r="AN57">
+        <v>566130.57302903302</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>1999</v>
       </c>
@@ -10434,26 +11709,44 @@
       <c r="T58">
         <v>491780.32949999999</v>
       </c>
-      <c r="AB58" s="6">
-        <v>1998</v>
-      </c>
-      <c r="AC58" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD58" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE58" s="6">
-        <v>3403909.415</v>
-      </c>
-      <c r="AF58" s="6">
-        <v>8.3811856269999999E-2</v>
-      </c>
-      <c r="AG58" s="6">
-        <v>227753.96109999999</v>
+      <c r="AB58">
+        <v>1996</v>
+      </c>
+      <c r="AC58">
+        <v>1</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE58">
+        <v>4005208.3327808101</v>
+      </c>
+      <c r="AF58">
+        <v>8.1228909430698507E-2</v>
+      </c>
+      <c r="AG58">
+        <v>251560.623425408</v>
+      </c>
+      <c r="AI58">
+        <v>1996</v>
+      </c>
+      <c r="AJ58">
+        <v>1</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL58">
+        <v>3903091.8181348201</v>
+      </c>
+      <c r="AM58">
+        <v>8.0037317248652901E-2</v>
+      </c>
+      <c r="AN58">
+        <v>242723.01855592299</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>2000</v>
       </c>
@@ -10490,26 +11783,44 @@
       <c r="T59">
         <v>758274.40769999998</v>
       </c>
-      <c r="AB59" s="6">
-        <v>1999</v>
-      </c>
-      <c r="AC59" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD59" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE59" s="6">
-        <v>5913922.9809999997</v>
-      </c>
-      <c r="AF59" s="6">
-        <v>0.1063624167</v>
-      </c>
-      <c r="AG59" s="6">
-        <v>492723.0368</v>
+      <c r="AB59">
+        <v>1997</v>
+      </c>
+      <c r="AC59">
+        <v>1</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE59">
+        <v>4310704.6326196697</v>
+      </c>
+      <c r="AF59">
+        <v>8.2416396364007494E-2</v>
+      </c>
+      <c r="AG59">
+        <v>275293.74060966499</v>
+      </c>
+      <c r="AI59">
+        <v>1997</v>
+      </c>
+      <c r="AJ59">
+        <v>1</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL59">
+        <v>4293508.6388257099</v>
+      </c>
+      <c r="AM59">
+        <v>8.1676380528895101E-2</v>
+      </c>
+      <c r="AN59">
+        <v>272367.567404737</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>2001</v>
       </c>
@@ -10546,26 +11857,44 @@
       <c r="T60">
         <v>482543.00170000002</v>
       </c>
-      <c r="AB60" s="6">
-        <v>2000</v>
-      </c>
-      <c r="AC60" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD60" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE60" s="6">
-        <v>7685388.5130000003</v>
-      </c>
-      <c r="AF60" s="6">
-        <v>9.8917576930000001E-2</v>
-      </c>
-      <c r="AG60" s="6">
-        <v>605215.53509999998</v>
+      <c r="AB60">
+        <v>1998</v>
+      </c>
+      <c r="AC60">
+        <v>1</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE60">
+        <v>3363785.6305751698</v>
+      </c>
+      <c r="AF60">
+        <v>8.4035525788279899E-2</v>
+      </c>
+      <c r="AG60">
+        <v>216327.68443219099</v>
+      </c>
+      <c r="AI60">
+        <v>1998</v>
+      </c>
+      <c r="AJ60">
+        <v>1</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL60">
+        <v>3286780.3179137399</v>
+      </c>
+      <c r="AM60">
+        <v>8.1491902270001706E-2</v>
+      </c>
+      <c r="AN60">
+        <v>205775.20498906801</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>2002</v>
       </c>
@@ -10602,26 +11931,44 @@
       <c r="T61">
         <v>526027.54579999996</v>
       </c>
-      <c r="AB61" s="6">
-        <v>2001</v>
-      </c>
-      <c r="AC61" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD61" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE61" s="6">
-        <v>6128179.6409999998</v>
-      </c>
-      <c r="AF61" s="6">
-        <v>9.160219017E-2</v>
-      </c>
-      <c r="AG61" s="6">
-        <v>446276.98550000001</v>
+      <c r="AB61">
+        <v>1999</v>
+      </c>
+      <c r="AC61">
+        <v>1</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE61">
+        <v>5420607.7085125698</v>
+      </c>
+      <c r="AF61">
+        <v>9.6087843376678805E-2</v>
+      </c>
+      <c r="AG61">
+        <v>399841.01182472898</v>
+      </c>
+      <c r="AI61">
+        <v>1999</v>
+      </c>
+      <c r="AJ61">
+        <v>1</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL61">
+        <v>5791680.8649247102</v>
+      </c>
+      <c r="AM61">
+        <v>9.8060988517198605E-2</v>
+      </c>
+      <c r="AN61">
+        <v>422471.613654744</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>2003</v>
       </c>
@@ -10658,26 +12005,44 @@
       <c r="T62">
         <v>1005444.562</v>
       </c>
-      <c r="AB62" s="6">
-        <v>2002</v>
-      </c>
-      <c r="AC62" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD62" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE62" s="6">
-        <v>6761897.2010000004</v>
-      </c>
-      <c r="AF62" s="6">
-        <v>7.7423727600000006E-2</v>
-      </c>
-      <c r="AG62" s="6">
-        <v>423375.91489999997</v>
+      <c r="AB62">
+        <v>2000</v>
+      </c>
+      <c r="AC62">
+        <v>1</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE62">
+        <v>7084400.3354760902</v>
+      </c>
+      <c r="AF62">
+        <v>9.4182667629093803E-2</v>
+      </c>
+      <c r="AG62">
+        <v>509541.09640630498</v>
+      </c>
+      <c r="AI62">
+        <v>2000</v>
+      </c>
+      <c r="AJ62">
+        <v>1</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL62">
+        <v>7075714.1789698098</v>
+      </c>
+      <c r="AM62">
+        <v>9.3151221249993393E-2</v>
+      </c>
+      <c r="AN62">
+        <v>502631.56348021701</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>2004</v>
       </c>
@@ -10714,26 +12079,44 @@
       <c r="T63">
         <v>443956.90139999997</v>
       </c>
-      <c r="AB63" s="6">
-        <v>2003</v>
-      </c>
-      <c r="AC63" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD63" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE63" s="6">
-        <v>11663620.539999999</v>
-      </c>
-      <c r="AF63" s="6">
-        <v>9.8883575929999995E-2</v>
-      </c>
-      <c r="AG63" s="6">
-        <v>915938.51780000003</v>
+      <c r="AB63">
+        <v>2001</v>
+      </c>
+      <c r="AC63">
+        <v>1</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE63">
+        <v>6096807.3440982597</v>
+      </c>
+      <c r="AF63">
+        <v>9.0428842866468698E-2</v>
+      </c>
+      <c r="AG63">
+        <v>420743.52456995298</v>
+      </c>
+      <c r="AI63">
+        <v>2001</v>
+      </c>
+      <c r="AJ63">
+        <v>1</v>
+      </c>
+      <c r="AK63" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL63">
+        <v>6042817.37825967</v>
+      </c>
+      <c r="AM63">
+        <v>8.9259726443519802E-2</v>
+      </c>
+      <c r="AN63">
+        <v>412947.000619067</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>2005</v>
       </c>
@@ -10770,26 +12153,44 @@
       <c r="T64">
         <v>621182.3504</v>
       </c>
-      <c r="AB64" s="6">
-        <v>2004</v>
-      </c>
-      <c r="AC64" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD64" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE64" s="6">
-        <v>5653359.4029999999</v>
-      </c>
-      <c r="AF64" s="6">
-        <v>8.8350397799999994E-2</v>
-      </c>
-      <c r="AG64" s="6">
-        <v>400492.83049999998</v>
+      <c r="AB64">
+        <v>2002</v>
+      </c>
+      <c r="AC64">
+        <v>1</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE64">
+        <v>6729584.39459386</v>
+      </c>
+      <c r="AF64">
+        <v>7.7292332225491603E-2</v>
+      </c>
+      <c r="AG64">
+        <v>403145.97156756202</v>
+      </c>
+      <c r="AI64">
+        <v>2002</v>
+      </c>
+      <c r="AJ64">
+        <v>1</v>
+      </c>
+      <c r="AK64" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL64">
+        <v>6613906.2703228397</v>
+      </c>
+      <c r="AM64">
+        <v>7.6245707228170007E-2</v>
+      </c>
+      <c r="AN64">
+        <v>392371.51834426803</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>2006</v>
       </c>
@@ -10826,26 +12227,44 @@
       <c r="T65">
         <v>395149.3504</v>
       </c>
-      <c r="AB65" s="6">
-        <v>2005</v>
-      </c>
-      <c r="AC65" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD65" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE65" s="6">
-        <v>7162187.7470000004</v>
-      </c>
-      <c r="AF65" s="6">
-        <v>9.4330208939999993E-2</v>
-      </c>
-      <c r="AG65" s="6">
-        <v>541080.0246</v>
+      <c r="AB65">
+        <v>2003</v>
+      </c>
+      <c r="AC65">
+        <v>1</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE65">
+        <v>11123093.9907843</v>
+      </c>
+      <c r="AF65">
+        <v>9.3315853928496895E-2</v>
+      </c>
+      <c r="AG65">
+        <v>799533.54816706502</v>
+      </c>
+      <c r="AI65">
+        <v>2003</v>
+      </c>
+      <c r="AJ65">
+        <v>1</v>
+      </c>
+      <c r="AK65" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL65">
+        <v>10851240.835178399</v>
+      </c>
+      <c r="AM65">
+        <v>9.1421931392117101E-2</v>
+      </c>
+      <c r="AN65">
+        <v>766211.827994472</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>2007</v>
       </c>
@@ -10882,26 +12301,44 @@
       <c r="T66">
         <v>792489.3541</v>
       </c>
-      <c r="AB66" s="6">
-        <v>2006</v>
-      </c>
-      <c r="AC66" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD66" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE66" s="6">
-        <v>4242170.3810000001</v>
-      </c>
-      <c r="AF66" s="6">
-        <v>9.087443731E-2</v>
-      </c>
-      <c r="AG66" s="6">
-        <v>308404.86119999998</v>
+      <c r="AB66">
+        <v>2004</v>
+      </c>
+      <c r="AC66">
+        <v>1</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE66">
+        <v>5538143.8812078498</v>
+      </c>
+      <c r="AF66">
+        <v>8.5426881495223206E-2</v>
+      </c>
+      <c r="AG66">
+        <v>363891.16206716001</v>
+      </c>
+      <c r="AI66">
+        <v>2004</v>
+      </c>
+      <c r="AJ66">
+        <v>1</v>
+      </c>
+      <c r="AK66" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL66">
+        <v>5474449.5878322003</v>
+      </c>
+      <c r="AM66">
+        <v>8.4528721794119396E-2</v>
+      </c>
+      <c r="AN66">
+        <v>357357.54415226699</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>2008</v>
       </c>
@@ -10938,26 +12375,44 @@
       <c r="T67">
         <v>479304.44</v>
       </c>
-      <c r="AB67" s="6">
-        <v>2007</v>
-      </c>
-      <c r="AC67" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD67" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE67" s="6">
-        <v>6820707.3600000003</v>
-      </c>
-      <c r="AF67" s="6">
-        <v>0.1139173478</v>
-      </c>
-      <c r="AG67" s="6">
-        <v>612404.99959999998</v>
+      <c r="AB67">
+        <v>2005</v>
+      </c>
+      <c r="AC67">
+        <v>1</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE67">
+        <v>6859794.1942600701</v>
+      </c>
+      <c r="AF67">
+        <v>9.1029130200861605E-2</v>
+      </c>
+      <c r="AG67">
+        <v>478861.532645598</v>
+      </c>
+      <c r="AI67">
+        <v>2005</v>
+      </c>
+      <c r="AJ67">
+        <v>1</v>
+      </c>
+      <c r="AK67" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL67">
+        <v>6653903.3180433298</v>
+      </c>
+      <c r="AM67">
+        <v>8.8457172982205304E-2</v>
+      </c>
+      <c r="AN67">
+        <v>453472.09324935602</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>2009</v>
       </c>
@@ -10994,26 +12449,44 @@
       <c r="T68">
         <v>430528.158</v>
       </c>
-      <c r="AB68" s="6">
-        <v>2008</v>
-      </c>
-      <c r="AC68" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD68" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE68" s="6">
-        <v>4819253.5190000003</v>
-      </c>
-      <c r="AF68" s="6">
-        <v>0.1189548798</v>
-      </c>
-      <c r="AG68" s="6">
-        <v>449331.7781</v>
+      <c r="AB68">
+        <v>2006</v>
+      </c>
+      <c r="AC68">
+        <v>1</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE68">
+        <v>4116869.83774806</v>
+      </c>
+      <c r="AF68">
+        <v>8.5923579176475098E-2</v>
+      </c>
+      <c r="AG68">
+        <v>272478.52678975399</v>
+      </c>
+      <c r="AI68">
+        <v>2006</v>
+      </c>
+      <c r="AJ68">
+        <v>1</v>
+      </c>
+      <c r="AK68" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL68">
+        <v>4155119.30510878</v>
+      </c>
+      <c r="AM68">
+        <v>8.6031042185310103E-2</v>
+      </c>
+      <c r="AN68">
+        <v>274591.34736382298</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>2010</v>
       </c>
@@ -11050,26 +12523,44 @@
       <c r="T69">
         <v>584501.38159999996</v>
       </c>
-      <c r="AB69" s="6">
-        <v>2009</v>
-      </c>
-      <c r="AC69" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD69" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE69" s="6">
-        <v>2882541.642</v>
-      </c>
-      <c r="AF69" s="6">
-        <v>0.1141586664</v>
-      </c>
-      <c r="AG69" s="6">
-        <v>262265.08319999999</v>
+      <c r="AB69">
+        <v>2007</v>
+      </c>
+      <c r="AC69">
+        <v>1</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE69">
+        <v>6749359.2613388803</v>
+      </c>
+      <c r="AF69">
+        <v>0.10890956866831</v>
+      </c>
+      <c r="AG69">
+        <v>556987.018518175</v>
+      </c>
+      <c r="AI69">
+        <v>2007</v>
+      </c>
+      <c r="AJ69">
+        <v>1</v>
+      </c>
+      <c r="AK69" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL69">
+        <v>6781276.2866397398</v>
+      </c>
+      <c r="AM69">
+        <v>0.108351257951432</v>
+      </c>
+      <c r="AN69">
+        <v>554239.66622841603</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>2011</v>
       </c>
@@ -11106,26 +12597,44 @@
       <c r="T70">
         <v>357511.63339999999</v>
       </c>
-      <c r="AB70" s="6">
-        <v>2010</v>
-      </c>
-      <c r="AC70" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD70" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE70" s="6">
-        <v>5321163.5240000002</v>
-      </c>
-      <c r="AF70" s="6">
-        <v>0.1097347232</v>
-      </c>
-      <c r="AG70" s="6">
-        <v>467833.10989999998</v>
+      <c r="AB70">
+        <v>2008</v>
+      </c>
+      <c r="AC70">
+        <v>1</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE70">
+        <v>4227431.8660840299</v>
+      </c>
+      <c r="AF70">
+        <v>0.104602056684467</v>
+      </c>
+      <c r="AG70">
+        <v>336933.86282927898</v>
+      </c>
+      <c r="AI70">
+        <v>2008</v>
+      </c>
+      <c r="AJ70">
+        <v>1</v>
+      </c>
+      <c r="AK70" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL70">
+        <v>4339374.9545985097</v>
+      </c>
+      <c r="AM70">
+        <v>0.10476984412006</v>
+      </c>
+      <c r="AN70">
+        <v>340859.53144505899</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>2012</v>
       </c>
@@ -11162,26 +12671,44 @@
       <c r="T71">
         <v>401070.91029999999</v>
       </c>
-      <c r="AB71" s="6">
-        <v>2011</v>
-      </c>
-      <c r="AC71" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD71" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE71" s="6">
-        <v>4441388.1140000001</v>
-      </c>
-      <c r="AF71" s="6">
-        <v>9.5007271490000003E-2</v>
-      </c>
-      <c r="AG71" s="6">
-        <v>333828.22210000001</v>
+      <c r="AB71">
+        <v>2009</v>
+      </c>
+      <c r="AC71">
+        <v>1</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE71">
+        <v>2825629.38697425</v>
+      </c>
+      <c r="AF71">
+        <v>0.10939714050754</v>
+      </c>
+      <c r="AG71">
+        <v>237978.01034489099</v>
+      </c>
+      <c r="AI71">
+        <v>2009</v>
+      </c>
+      <c r="AJ71">
+        <v>1</v>
+      </c>
+      <c r="AK71" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL71">
+        <v>2839933.5632310398</v>
+      </c>
+      <c r="AM71">
+        <v>0.108885081007985</v>
+      </c>
+      <c r="AN71">
+        <v>235582.403900776</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>2013</v>
       </c>
@@ -11218,26 +12745,44 @@
       <c r="T72">
         <v>537931.32440000004</v>
       </c>
-      <c r="AB72" s="6">
-        <v>2012</v>
-      </c>
-      <c r="AC72" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD72" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE72" s="6">
-        <v>5054816.4919999996</v>
-      </c>
-      <c r="AF72" s="6">
-        <v>8.9386564340000002E-2</v>
-      </c>
-      <c r="AG72" s="6">
-        <v>357759.4938</v>
+      <c r="AB72">
+        <v>2010</v>
+      </c>
+      <c r="AC72">
+        <v>1</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE72">
+        <v>5161895.8131614896</v>
+      </c>
+      <c r="AF72">
+        <v>0.10268270539938899</v>
+      </c>
+      <c r="AG72">
+        <v>408018.84983050497</v>
+      </c>
+      <c r="AI72">
+        <v>2010</v>
+      </c>
+      <c r="AJ72">
+        <v>1</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL72">
+        <v>5214953.7135233404</v>
+      </c>
+      <c r="AM72">
+        <v>0.10264393044521899</v>
+      </c>
+      <c r="AN72">
+        <v>410241.61897414399</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>2014</v>
       </c>
@@ -11274,26 +12819,44 @@
       <c r="T73">
         <v>808394.67839999998</v>
       </c>
-      <c r="AB73" s="6">
-        <v>2013</v>
-      </c>
-      <c r="AC73" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD73" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE73" s="6">
-        <v>6417713.4419999998</v>
-      </c>
-      <c r="AF73" s="6">
-        <v>8.8333504770000001E-2</v>
-      </c>
-      <c r="AG73" s="6">
-        <v>457277.51360000001</v>
+      <c r="AB73">
+        <v>2011</v>
+      </c>
+      <c r="AC73">
+        <v>1</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE73">
+        <v>4555412.8982997201</v>
+      </c>
+      <c r="AF73">
+        <v>9.6926846968006602E-2</v>
+      </c>
+      <c r="AG73">
+        <v>333520.46881973901</v>
+      </c>
+      <c r="AI73">
+        <v>2011</v>
+      </c>
+      <c r="AJ73">
+        <v>1</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL73">
+        <v>4433983.7825009897</v>
+      </c>
+      <c r="AM73">
+        <v>9.4692781918653907E-2</v>
+      </c>
+      <c r="AN73">
+        <v>318949.90450621798</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>2015</v>
       </c>
@@ -11330,26 +12893,44 @@
       <c r="T74">
         <v>622122.04610000004</v>
       </c>
-      <c r="AB74" s="6">
-        <v>2014</v>
-      </c>
-      <c r="AC74" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD74" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE74" s="6">
-        <v>11493371.880000001</v>
-      </c>
-      <c r="AF74" s="6">
-        <v>7.7176813499999997E-2</v>
-      </c>
-      <c r="AG74" s="6">
-        <v>712686.77430000005</v>
+      <c r="AB74">
+        <v>2012</v>
+      </c>
+      <c r="AC74">
+        <v>1</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE74">
+        <v>4844553.3910100702</v>
+      </c>
+      <c r="AF74">
+        <v>8.4616507905195995E-2</v>
+      </c>
+      <c r="AG74">
+        <v>316625.61771495797</v>
+      </c>
+      <c r="AI74">
+        <v>2012</v>
+      </c>
+      <c r="AJ74">
+        <v>1</v>
+      </c>
+      <c r="AK74" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL74">
+        <v>5157065.3473571502</v>
+      </c>
+      <c r="AM74">
+        <v>8.8193538998550897E-2</v>
+      </c>
+      <c r="AN74">
+        <v>342592.874021111</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>2016</v>
       </c>
@@ -11386,26 +12967,44 @@
       <c r="T75">
         <v>600668.30680000002</v>
       </c>
-      <c r="AB75" s="6">
-        <v>2015</v>
-      </c>
-      <c r="AC75" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD75" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE75" s="6">
-        <v>9663320.9700000007</v>
-      </c>
-      <c r="AF75" s="6">
-        <v>7.4852929959999995E-2</v>
-      </c>
-      <c r="AG75" s="6">
-        <v>576529.48450000002</v>
+      <c r="AB75">
+        <v>2013</v>
+      </c>
+      <c r="AC75">
+        <v>1</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE75">
+        <v>6604532.03526734</v>
+      </c>
+      <c r="AF75">
+        <v>8.5330601054788E-2</v>
+      </c>
+      <c r="AG75">
+        <v>435083.54472104501</v>
+      </c>
+      <c r="AI75">
+        <v>2013</v>
+      </c>
+      <c r="AJ75">
+        <v>1</v>
+      </c>
+      <c r="AK75" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL75">
+        <v>6679869.5464985296</v>
+      </c>
+      <c r="AM75">
+        <v>8.5745984546514303E-2</v>
+      </c>
+      <c r="AN75">
+        <v>440000.250600531</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>2017</v>
       </c>
@@ -11442,26 +13041,44 @@
       <c r="T76">
         <v>550671.44129999995</v>
       </c>
-      <c r="AB76" s="6">
-        <v>2016</v>
-      </c>
-      <c r="AC76" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD76" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE76" s="6">
-        <v>7495615.017</v>
-      </c>
-      <c r="AF76" s="6">
-        <v>8.3218120909999999E-2</v>
-      </c>
-      <c r="AG76" s="6">
-        <v>490171.91940000001</v>
+      <c r="AB76">
+        <v>2014</v>
+      </c>
+      <c r="AC76">
+        <v>1</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE76">
+        <v>11421654.7156941</v>
+      </c>
+      <c r="AF76">
+        <v>7.4646356882065001E-2</v>
+      </c>
+      <c r="AG76">
+        <v>654836.94706881198</v>
+      </c>
+      <c r="AI76">
+        <v>2014</v>
+      </c>
+      <c r="AJ76">
+        <v>1</v>
+      </c>
+      <c r="AK76" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL76">
+        <v>11219190.358287901</v>
+      </c>
+      <c r="AM76">
+        <v>7.3582488948813599E-2</v>
+      </c>
+      <c r="AN76">
+        <v>636935.45437035896</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>2018</v>
       </c>
@@ -11498,26 +13115,44 @@
       <c r="T77">
         <v>394348.72080000001</v>
       </c>
-      <c r="AB77" s="6">
-        <v>2017</v>
-      </c>
-      <c r="AC77" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD77" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE77" s="6">
-        <v>7300671.5269999998</v>
-      </c>
-      <c r="AF77" s="6">
-        <v>8.0643129470000005E-2</v>
-      </c>
-      <c r="AG77" s="6">
-        <v>467519.16230000003</v>
+      <c r="AB77">
+        <v>2015</v>
+      </c>
+      <c r="AC77">
+        <v>1</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE77">
+        <v>10110190.251533899</v>
+      </c>
+      <c r="AF77">
+        <v>7.4300990093256303E-2</v>
+      </c>
+      <c r="AG77">
+        <v>572983.11230108596</v>
+      </c>
+      <c r="AI77">
+        <v>2015</v>
+      </c>
+      <c r="AJ77">
+        <v>1</v>
+      </c>
+      <c r="AK77" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL77">
+        <v>10000795.3002393</v>
+      </c>
+      <c r="AM77">
+        <v>7.3615395167106301E-2</v>
+      </c>
+      <c r="AN77">
+        <v>563636.45816271205</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>2019</v>
       </c>
@@ -11554,26 +13189,44 @@
       <c r="T78">
         <v>605936.40740000003</v>
       </c>
-      <c r="AB78" s="6">
-        <v>2018</v>
-      </c>
-      <c r="AC78" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD78" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE78" s="6">
-        <v>4260930</v>
-      </c>
-      <c r="AF78" s="6">
-        <v>0.1032936936</v>
-      </c>
-      <c r="AG78" s="6">
-        <v>347390.34989999997</v>
+      <c r="AB78">
+        <v>2016</v>
+      </c>
+      <c r="AC78">
+        <v>1</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE78">
+        <v>7276494.2350501604</v>
+      </c>
+      <c r="AF78">
+        <v>8.0331643097819302E-2</v>
+      </c>
+      <c r="AG78">
+        <v>442545.16317619698</v>
+      </c>
+      <c r="AI78">
+        <v>2016</v>
+      </c>
+      <c r="AJ78">
+        <v>1</v>
+      </c>
+      <c r="AK78" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL78">
+        <v>7144313.2385291299</v>
+      </c>
+      <c r="AM78">
+        <v>7.7687681188117405E-2</v>
+      </c>
+      <c r="AN78">
+        <v>422168.11350782099</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>1982</v>
       </c>
@@ -11610,26 +13263,44 @@
       <c r="T79">
         <v>8656.6071570000004</v>
       </c>
-      <c r="AB79" s="6">
-        <v>2019</v>
-      </c>
-      <c r="AC79" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD79" s="6">
-        <v>2</v>
-      </c>
-      <c r="AE79" s="6">
-        <v>7945124.3169999998</v>
-      </c>
-      <c r="AF79" s="6">
-        <v>7.9028971330000003E-2</v>
-      </c>
-      <c r="AG79" s="6">
-        <v>496152.89889999997</v>
+      <c r="AB79">
+        <v>2017</v>
+      </c>
+      <c r="AC79">
+        <v>1</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE79">
+        <v>7159867.7406936698</v>
+      </c>
+      <c r="AF79">
+        <v>7.6945670021027104E-2</v>
+      </c>
+      <c r="AG79">
+        <v>419822.15627903998</v>
+      </c>
+      <c r="AI79">
+        <v>2017</v>
+      </c>
+      <c r="AJ79">
+        <v>1</v>
+      </c>
+      <c r="AK79" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL79">
+        <v>7219252.1304442901</v>
+      </c>
+      <c r="AM79">
+        <v>7.7090297652262899E-2</v>
+      </c>
+      <c r="AN79">
+        <v>424139.12132904801</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>1983</v>
       </c>
@@ -11666,26 +13337,44 @@
       <c r="T80">
         <v>60729.629280000001</v>
       </c>
-      <c r="AB80" s="6">
-        <v>1982</v>
-      </c>
-      <c r="AC80" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD80" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE80" s="6">
-        <v>19472.349829999999</v>
-      </c>
-      <c r="AF80" s="6">
-        <v>0.56801949750000003</v>
-      </c>
-      <c r="AG80" s="6">
-        <v>6269.1588680000004</v>
+      <c r="AB80">
+        <v>2018</v>
+      </c>
+      <c r="AC80">
+        <v>1</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE80">
+        <v>3891229.30278312</v>
+      </c>
+      <c r="AF80">
+        <v>8.5535466791314907E-2</v>
+      </c>
+      <c r="AG80">
+        <v>253089.22176601901</v>
+      </c>
+      <c r="AI80">
+        <v>2018</v>
+      </c>
+      <c r="AJ80">
+        <v>1</v>
+      </c>
+      <c r="AK80" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL80">
+        <v>3802542.3065047502</v>
+      </c>
+      <c r="AM80">
+        <v>8.3963841171139406E-2</v>
+      </c>
+      <c r="AN80">
+        <v>242917.500313728</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>1984</v>
       </c>
@@ -11722,26 +13411,44 @@
       <c r="T81">
         <v>30590.719509999999</v>
       </c>
-      <c r="AB81" s="6">
-        <v>1983</v>
-      </c>
-      <c r="AC81" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD81" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE81" s="6">
-        <v>160594.84959999999</v>
-      </c>
-      <c r="AF81" s="6">
-        <v>0.55770984999999995</v>
-      </c>
-      <c r="AG81" s="6">
-        <v>50025.409789999998</v>
+      <c r="AB81">
+        <v>2019</v>
+      </c>
+      <c r="AC81">
+        <v>1</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE81">
+        <v>7794056.39903754</v>
+      </c>
+      <c r="AF81">
+        <v>7.6120169566337298E-2</v>
+      </c>
+      <c r="AG81">
+        <v>448934.10327788</v>
+      </c>
+      <c r="AI81">
+        <v>2019</v>
+      </c>
+      <c r="AJ81">
+        <v>1</v>
+      </c>
+      <c r="AK81" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL81">
+        <v>7638380.9389714301</v>
+      </c>
+      <c r="AM81">
+        <v>7.4891917818939099E-2</v>
+      </c>
+      <c r="AN81">
+        <v>434537.37151412101</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>1985</v>
       </c>
@@ -11778,26 +13485,44 @@
       <c r="T82">
         <v>132728.69810000001</v>
       </c>
-      <c r="AB82" s="6">
-        <v>1984</v>
-      </c>
-      <c r="AC82" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD82" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE82" s="6">
-        <v>48035.70233</v>
-      </c>
-      <c r="AF82" s="6">
-        <v>0.64855295479999997</v>
-      </c>
-      <c r="AG82" s="6">
-        <v>16326.76181</v>
+      <c r="AB82">
+        <v>2020</v>
+      </c>
+      <c r="AC82">
+        <v>1</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI82">
+        <v>2020</v>
+      </c>
+      <c r="AJ82">
+        <v>1</v>
+      </c>
+      <c r="AK82" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL82">
+        <v>0</v>
+      </c>
+      <c r="AM82" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN82" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>1986</v>
       </c>
@@ -11834,26 +13559,44 @@
       <c r="T83">
         <v>43227.631079999999</v>
       </c>
-      <c r="AB83" s="6">
-        <v>1985</v>
-      </c>
-      <c r="AC83" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD83" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE83" s="6">
-        <v>280583.90999999997</v>
-      </c>
-      <c r="AF83" s="6">
-        <v>0.30562455370000002</v>
-      </c>
-      <c r="AG83" s="6">
-        <v>55417.124750000003</v>
+      <c r="AB83">
+        <v>2021</v>
+      </c>
+      <c r="AC83">
+        <v>1</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE83">
+        <v>4282150.3243337404</v>
+      </c>
+      <c r="AF83">
+        <v>8.0805383505066802E-2</v>
+      </c>
+      <c r="AG83">
+        <v>257486.45780827201</v>
+      </c>
+      <c r="AI83">
+        <v>2021</v>
+      </c>
+      <c r="AJ83">
+        <v>1</v>
+      </c>
+      <c r="AK83" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL83">
+        <v>4176046.7518120701</v>
+      </c>
+      <c r="AM83">
+        <v>7.8871882397030205E-2</v>
+      </c>
+      <c r="AN83">
+        <v>246562.09736741899</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>1987</v>
       </c>
@@ -11890,26 +13633,44 @@
       <c r="T84">
         <v>27428.260340000001</v>
       </c>
-      <c r="AB84" s="6">
-        <v>1986</v>
-      </c>
-      <c r="AC84" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD84" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE84" s="6">
-        <v>57220.615059999996</v>
-      </c>
-      <c r="AF84" s="6">
-        <v>0.59737034850000004</v>
-      </c>
-      <c r="AG84" s="6">
-        <v>18429.09676</v>
+      <c r="AB84">
+        <v>1982</v>
+      </c>
+      <c r="AC84">
+        <v>1</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE84">
+        <v>91345.140144111705</v>
+      </c>
+      <c r="AF84">
+        <v>0.71474907448561897</v>
+      </c>
+      <c r="AG84">
+        <v>31621.008929368702</v>
+      </c>
+      <c r="AI84">
+        <v>1982</v>
+      </c>
+      <c r="AJ84">
+        <v>1</v>
+      </c>
+      <c r="AK84" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL84">
+        <v>76274.635143292893</v>
+      </c>
+      <c r="AM84">
+        <v>0.66586421158706899</v>
+      </c>
+      <c r="AN84">
+        <v>25257.7539532632</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>1988</v>
       </c>
@@ -11946,26 +13707,44 @@
       <c r="T85">
         <v>9118.7537260000008</v>
       </c>
-      <c r="AB85" s="6">
-        <v>1987</v>
-      </c>
-      <c r="AC85" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD85" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE85" s="6">
-        <v>81702.617559999999</v>
-      </c>
-      <c r="AF85" s="6">
-        <v>0.61802149520000005</v>
-      </c>
-      <c r="AG85" s="6">
-        <v>26440.810689999998</v>
+      <c r="AB85">
+        <v>1983</v>
+      </c>
+      <c r="AC85">
+        <v>1</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE85">
+        <v>370342.51113035699</v>
+      </c>
+      <c r="AF85">
+        <v>0.64684194127922401</v>
+      </c>
+      <c r="AG85">
+        <v>116837.433464783</v>
+      </c>
+      <c r="AI85">
+        <v>1983</v>
+      </c>
+      <c r="AJ85">
+        <v>1</v>
+      </c>
+      <c r="AK85" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL85">
+        <v>366581.22695127199</v>
+      </c>
+      <c r="AM85">
+        <v>0.59049118215720797</v>
+      </c>
+      <c r="AN85">
+        <v>110547.318536714</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>1989</v>
       </c>
@@ -12002,26 +13781,44 @@
       <c r="T86">
         <v>23277.77766</v>
       </c>
-      <c r="AB86" s="6">
-        <v>1988</v>
-      </c>
-      <c r="AC86" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD86" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE86" s="6">
-        <v>21984.779900000001</v>
-      </c>
-      <c r="AF86" s="6">
-        <v>0.53502825470000004</v>
-      </c>
-      <c r="AG86" s="6">
-        <v>6728.9577790000003</v>
+      <c r="AB86">
+        <v>1984</v>
+      </c>
+      <c r="AC86">
+        <v>1</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE86">
+        <v>110030.633382988</v>
+      </c>
+      <c r="AF86">
+        <v>0.72851714567913795</v>
+      </c>
+      <c r="AG86">
+        <v>37732.006654392899</v>
+      </c>
+      <c r="AI86">
+        <v>1984</v>
+      </c>
+      <c r="AJ86">
+        <v>1</v>
+      </c>
+      <c r="AK86" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL86">
+        <v>101499.30159421499</v>
+      </c>
+      <c r="AM86">
+        <v>0.66382030934337399</v>
+      </c>
+      <c r="AN86">
+        <v>32982.410579990697</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>1990</v>
       </c>
@@ -12058,26 +13855,44 @@
       <c r="T87">
         <v>29758.24467</v>
       </c>
-      <c r="AB87" s="6">
-        <v>1989</v>
-      </c>
-      <c r="AC87" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD87" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE87" s="6">
-        <v>90251.707479999997</v>
-      </c>
-      <c r="AF87" s="6">
-        <v>0.51632598730000001</v>
-      </c>
-      <c r="AG87" s="6">
-        <v>26343.838609999999</v>
+      <c r="AB87">
+        <v>1985</v>
+      </c>
+      <c r="AC87">
+        <v>1</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE87">
+        <v>332819.807181774</v>
+      </c>
+      <c r="AF87">
+        <v>0.32365361296692102</v>
+      </c>
+      <c r="AG87">
+        <v>62990.786951853297</v>
+      </c>
+      <c r="AI87">
+        <v>1985</v>
+      </c>
+      <c r="AJ87">
+        <v>1</v>
+      </c>
+      <c r="AK87" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL87">
+        <v>321890.83981311502</v>
+      </c>
+      <c r="AM87">
+        <v>0.31481699904610699</v>
+      </c>
+      <c r="AN87">
+        <v>59978.996211459802</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>1991</v>
       </c>
@@ -12114,26 +13929,44 @@
       <c r="T88">
         <v>45223.290719999997</v>
       </c>
-      <c r="AB88" s="6">
-        <v>1990</v>
-      </c>
-      <c r="AC88" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD88" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE88" s="6">
-        <v>55993.941720000003</v>
-      </c>
-      <c r="AF88" s="6">
-        <v>0.5885060969</v>
-      </c>
-      <c r="AG88" s="6">
-        <v>17738.69527</v>
+      <c r="AB88">
+        <v>1986</v>
+      </c>
+      <c r="AC88">
+        <v>1</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE88">
+        <v>163612.26672672899</v>
+      </c>
+      <c r="AF88">
+        <v>0.68550693272921404</v>
+      </c>
+      <c r="AG88">
+        <v>53425.862547012002</v>
+      </c>
+      <c r="AI88">
+        <v>1986</v>
+      </c>
+      <c r="AJ88">
+        <v>1</v>
+      </c>
+      <c r="AK88" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL88">
+        <v>130734.065893907</v>
+      </c>
+      <c r="AM88">
+        <v>0.63621886436182695</v>
+      </c>
+      <c r="AN88">
+        <v>40359.140070539703</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>1992</v>
       </c>
@@ -12170,26 +14003,44 @@
       <c r="T89">
         <v>44728.379889999997</v>
       </c>
-      <c r="AB89" s="6">
-        <v>1991</v>
-      </c>
-      <c r="AC89" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD89" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE89" s="6">
-        <v>151366.9993</v>
-      </c>
-      <c r="AF89" s="6">
-        <v>0.24584105980000001</v>
-      </c>
-      <c r="AG89" s="6">
-        <v>25093.694380000001</v>
+      <c r="AB89">
+        <v>1987</v>
+      </c>
+      <c r="AC89">
+        <v>1</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE89">
+        <v>198547.646753006</v>
+      </c>
+      <c r="AF89">
+        <v>0.66743655327103701</v>
+      </c>
+      <c r="AG89">
+        <v>64124.039684382697</v>
+      </c>
+      <c r="AI89">
+        <v>1987</v>
+      </c>
+      <c r="AJ89">
+        <v>1</v>
+      </c>
+      <c r="AK89" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL89">
+        <v>260821.236142062</v>
+      </c>
+      <c r="AM89">
+        <v>0.61176566141908195</v>
+      </c>
+      <c r="AN89">
+        <v>80892.157290603398</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>1993</v>
       </c>
@@ -12226,26 +14077,44 @@
       <c r="T90">
         <v>61555.538939999999</v>
       </c>
-      <c r="AB90" s="6">
-        <v>1992</v>
-      </c>
-      <c r="AC90" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD90" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE90" s="6">
-        <v>58817.803039999999</v>
-      </c>
-      <c r="AF90" s="6">
-        <v>0.6856826292</v>
-      </c>
-      <c r="AG90" s="6">
-        <v>20092.76499</v>
+      <c r="AB90">
+        <v>1988</v>
+      </c>
+      <c r="AC90">
+        <v>1</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE90">
+        <v>163950.86861195901</v>
+      </c>
+      <c r="AF90">
+        <v>0.232279129339482</v>
+      </c>
+      <c r="AG90">
+        <v>24655.3895543502</v>
+      </c>
+      <c r="AI90">
+        <v>1988</v>
+      </c>
+      <c r="AJ90">
+        <v>1</v>
+      </c>
+      <c r="AK90" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL90">
+        <v>160265.37513214201</v>
+      </c>
+      <c r="AM90">
+        <v>0.22747464310898799</v>
+      </c>
+      <c r="AN90">
+        <v>23646.755887236599</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>1994</v>
       </c>
@@ -12282,26 +14151,44 @@
       <c r="T91">
         <v>40133.86724</v>
       </c>
-      <c r="AB91" s="6">
-        <v>1993</v>
-      </c>
-      <c r="AC91" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD91" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE91" s="6">
-        <v>146691.67170000001</v>
-      </c>
-      <c r="AF91" s="6">
-        <v>0.67754557179999997</v>
-      </c>
-      <c r="AG91" s="6">
-        <v>48876.375330000003</v>
+      <c r="AB91">
+        <v>1989</v>
+      </c>
+      <c r="AC91">
+        <v>1</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE91">
+        <v>192252.61927594899</v>
+      </c>
+      <c r="AF91">
+        <v>0.606503347053019</v>
+      </c>
+      <c r="AG91">
+        <v>58260.362173438603</v>
+      </c>
+      <c r="AI91">
+        <v>1989</v>
+      </c>
+      <c r="AJ91">
+        <v>1</v>
+      </c>
+      <c r="AK91" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL91">
+        <v>225044.693780523</v>
+      </c>
+      <c r="AM91">
+        <v>0.56322084695347296</v>
+      </c>
+      <c r="AN91">
+        <v>65751.621295739198</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>1995</v>
       </c>
@@ -12338,26 +14225,44 @@
       <c r="T92">
         <v>28400.94327</v>
       </c>
-      <c r="AB92" s="6">
-        <v>1994</v>
-      </c>
-      <c r="AC92" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD92" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE92" s="6">
-        <v>59204.096360000003</v>
-      </c>
-      <c r="AF92" s="6">
-        <v>0.70313365949999995</v>
-      </c>
-      <c r="AG92" s="6">
-        <v>20114.883760000001</v>
+      <c r="AB92">
+        <v>1990</v>
+      </c>
+      <c r="AC92">
+        <v>1</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE92">
+        <v>130189.189418826</v>
+      </c>
+      <c r="AF92">
+        <v>0.66249704702606704</v>
+      </c>
+      <c r="AG92">
+        <v>41687.871785770702</v>
+      </c>
+      <c r="AI92">
+        <v>1990</v>
+      </c>
+      <c r="AJ92">
+        <v>1</v>
+      </c>
+      <c r="AK92" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL92">
+        <v>123907.238276184</v>
+      </c>
+      <c r="AM92">
+        <v>0.60400705406005695</v>
+      </c>
+      <c r="AN92">
+        <v>37673.539683648603</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>1996</v>
       </c>
@@ -12394,26 +14299,44 @@
       <c r="T93">
         <v>30955.23892</v>
       </c>
-      <c r="AB93" s="6">
-        <v>1995</v>
-      </c>
-      <c r="AC93" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD93" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE93" s="6">
-        <v>42208.443039999998</v>
-      </c>
-      <c r="AF93" s="6">
-        <v>0.65455745259999998</v>
-      </c>
-      <c r="AG93" s="6">
-        <v>13906.067709999999</v>
+      <c r="AB93">
+        <v>1991</v>
+      </c>
+      <c r="AC93">
+        <v>1</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE93">
+        <v>190875.26533066001</v>
+      </c>
+      <c r="AF93">
+        <v>0.296477570549872</v>
+      </c>
+      <c r="AG93">
+        <v>34712.314157632602</v>
+      </c>
+      <c r="AI93">
+        <v>1991</v>
+      </c>
+      <c r="AJ93">
+        <v>1</v>
+      </c>
+      <c r="AK93" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL93">
+        <v>189342.072242858</v>
+      </c>
+      <c r="AM93">
+        <v>0.288423754245482</v>
+      </c>
+      <c r="AN93">
+        <v>33921.517390557201</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>1997</v>
       </c>
@@ -12450,26 +14373,44 @@
       <c r="T94">
         <v>33076.409899999999</v>
       </c>
-      <c r="AB94" s="6">
-        <v>1996</v>
-      </c>
-      <c r="AC94" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD94" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE94" s="6">
-        <v>120169.9659</v>
-      </c>
-      <c r="AF94" s="6">
-        <v>0.62184794980000002</v>
-      </c>
-      <c r="AG94" s="6">
-        <v>37563.344539999998</v>
+      <c r="AB94">
+        <v>1992</v>
+      </c>
+      <c r="AC94">
+        <v>1</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE94">
+        <v>104980.858204195</v>
+      </c>
+      <c r="AF94">
+        <v>0.747064330616665</v>
+      </c>
+      <c r="AG94">
+        <v>36244.178573541598</v>
+      </c>
+      <c r="AI94">
+        <v>1992</v>
+      </c>
+      <c r="AJ94">
+        <v>1</v>
+      </c>
+      <c r="AK94" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL94">
+        <v>90533.908047024495</v>
+      </c>
+      <c r="AM94">
+        <v>0.68818258845241798</v>
+      </c>
+      <c r="AN94">
+        <v>29557.188721557399</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>1998</v>
       </c>
@@ -12506,26 +14447,44 @@
       <c r="T95">
         <v>37937.316480000001</v>
       </c>
-      <c r="AB95" s="6">
-        <v>1997</v>
-      </c>
-      <c r="AC95" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD95" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE95" s="6">
-        <v>80816.649430000005</v>
-      </c>
-      <c r="AF95" s="6">
-        <v>0.58945117030000005</v>
-      </c>
-      <c r="AG95" s="6">
-        <v>25142.70923</v>
+      <c r="AB95">
+        <v>1993</v>
+      </c>
+      <c r="AC95">
+        <v>1</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE95">
+        <v>151837.36269813901</v>
+      </c>
+      <c r="AF95">
+        <v>0.73322785380755795</v>
+      </c>
+      <c r="AG95">
+        <v>51721.5129300267</v>
+      </c>
+      <c r="AI95">
+        <v>1993</v>
+      </c>
+      <c r="AJ95">
+        <v>1</v>
+      </c>
+      <c r="AK95" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL95">
+        <v>165759.696083441</v>
+      </c>
+      <c r="AM95">
+        <v>0.65323734543102197</v>
+      </c>
+      <c r="AN95">
+        <v>53157.894722454097</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>1999</v>
       </c>
@@ -12562,26 +14521,44 @@
       <c r="T96">
         <v>15140.374820000001</v>
       </c>
-      <c r="AB96" s="6">
-        <v>1998</v>
-      </c>
-      <c r="AC96" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD96" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE96" s="6">
-        <v>182876.40609999999</v>
-      </c>
-      <c r="AF96" s="6">
-        <v>0.47916904719999998</v>
-      </c>
-      <c r="AG96" s="6">
-        <v>49620.169670000003</v>
+      <c r="AB96">
+        <v>1994</v>
+      </c>
+      <c r="AC96">
+        <v>1</v>
+      </c>
+      <c r="AD96" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE96">
+        <v>81975.747592438696</v>
+      </c>
+      <c r="AF96">
+        <v>0.82666118939234001</v>
+      </c>
+      <c r="AG96">
+        <v>30470.378060205301</v>
+      </c>
+      <c r="AI96">
+        <v>1994</v>
+      </c>
+      <c r="AJ96">
+        <v>1</v>
+      </c>
+      <c r="AK96" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL96">
+        <v>72306.434469685395</v>
+      </c>
+      <c r="AM96">
+        <v>0.74862265823659402</v>
+      </c>
+      <c r="AN96">
+        <v>24997.740167573302</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>2000</v>
       </c>
@@ -12618,26 +14595,44 @@
       <c r="T97">
         <v>33910.249459999999</v>
       </c>
-      <c r="AB97" s="6">
-        <v>1999</v>
-      </c>
-      <c r="AC97" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD97" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE97" s="6">
-        <v>18089.1338</v>
-      </c>
-      <c r="AF97" s="6">
-        <v>0.72723347559999996</v>
-      </c>
-      <c r="AG97" s="6">
-        <v>6105.4193429999996</v>
+      <c r="AB97">
+        <v>1995</v>
+      </c>
+      <c r="AC97">
+        <v>1</v>
+      </c>
+      <c r="AD97" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE97">
+        <v>71571.215431880904</v>
+      </c>
+      <c r="AF97">
+        <v>0.742363939312773</v>
+      </c>
+      <c r="AG97">
+        <v>24301.600264487999</v>
+      </c>
+      <c r="AI97">
+        <v>1995</v>
+      </c>
+      <c r="AJ97">
+        <v>1</v>
+      </c>
+      <c r="AK97" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL97">
+        <v>59088.637584067197</v>
+      </c>
+      <c r="AM97">
+        <v>0.68438946093638597</v>
+      </c>
+      <c r="AN97">
+        <v>18831.453185472899</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>2001</v>
       </c>
@@ -12674,26 +14669,44 @@
       <c r="T98">
         <v>29821.73054</v>
       </c>
-      <c r="AB98" s="6">
-        <v>2000</v>
-      </c>
-      <c r="AC98" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD98" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE98" s="6">
-        <v>61959.851770000001</v>
-      </c>
-      <c r="AF98" s="6">
-        <v>0.64626139120000003</v>
-      </c>
-      <c r="AG98" s="6">
-        <v>20151.367010000002</v>
+      <c r="AB98">
+        <v>1996</v>
+      </c>
+      <c r="AC98">
+        <v>1</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE98">
+        <v>108257.85875621501</v>
+      </c>
+      <c r="AF98">
+        <v>0.66430648688079297</v>
+      </c>
+      <c r="AG98">
+        <v>34024.602912334798</v>
+      </c>
+      <c r="AI98">
+        <v>1996</v>
+      </c>
+      <c r="AJ98">
+        <v>1</v>
+      </c>
+      <c r="AK98" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL98">
+        <v>122301.46571644599</v>
+      </c>
+      <c r="AM98">
+        <v>0.603076095683313</v>
+      </c>
+      <c r="AN98">
+        <v>36726.929347620098</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>2002</v>
       </c>
@@ -12730,26 +14743,44 @@
       <c r="T99">
         <v>40401.881679999999</v>
       </c>
-      <c r="AB99" s="6">
-        <v>2001</v>
-      </c>
-      <c r="AC99" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD99" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE99" s="6">
-        <v>40231.02708</v>
-      </c>
-      <c r="AF99" s="6">
-        <v>0.66775714320000001</v>
-      </c>
-      <c r="AG99" s="6">
-        <v>13335.604009999999</v>
+      <c r="AB99">
+        <v>1997</v>
+      </c>
+      <c r="AC99">
+        <v>1</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE99">
+        <v>104155.321616891</v>
+      </c>
+      <c r="AF99">
+        <v>0.70227280106015799</v>
+      </c>
+      <c r="AG99">
+        <v>34034.150473287802</v>
+      </c>
+      <c r="AI99">
+        <v>1997</v>
+      </c>
+      <c r="AJ99">
+        <v>1</v>
+      </c>
+      <c r="AK99" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL99">
+        <v>98639.821771395407</v>
+      </c>
+      <c r="AM99">
+        <v>0.63250648869265103</v>
+      </c>
+      <c r="AN99">
+        <v>30559.815948676202</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>2003</v>
       </c>
@@ -12786,26 +14817,44 @@
       <c r="T100">
         <v>118656.35400000001</v>
       </c>
-      <c r="AB100" s="6">
-        <v>2002</v>
-      </c>
-      <c r="AC100" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD100" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE100" s="6">
-        <v>116796.44439999999</v>
-      </c>
-      <c r="AF100" s="6">
-        <v>0.50938214849999996</v>
-      </c>
-      <c r="AG100" s="6">
-        <v>32361.63913</v>
+      <c r="AB100">
+        <v>1998</v>
+      </c>
+      <c r="AC100">
+        <v>1</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE100">
+        <v>199619.41803589201</v>
+      </c>
+      <c r="AF100">
+        <v>0.52219457685236403</v>
+      </c>
+      <c r="AG100">
+        <v>53937.896973669602</v>
+      </c>
+      <c r="AI100">
+        <v>1998</v>
+      </c>
+      <c r="AJ100">
+        <v>1</v>
+      </c>
+      <c r="AK100" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL100">
+        <v>216740.46015033399</v>
+      </c>
+      <c r="AM100">
+        <v>0.48507804853601399</v>
+      </c>
+      <c r="AN100">
+        <v>56474.9829948388</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>2004</v>
       </c>
@@ -12842,26 +14891,44 @@
       <c r="T101">
         <v>58256.670230000003</v>
       </c>
-      <c r="AB101" s="6">
-        <v>2003</v>
-      </c>
-      <c r="AC101" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD101" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE101" s="6">
-        <v>496091.81050000002</v>
-      </c>
-      <c r="AF101" s="6">
-        <v>0.52068502230000002</v>
-      </c>
-      <c r="AG101" s="6">
-        <v>139252.61290000001</v>
+      <c r="AB101">
+        <v>1999</v>
+      </c>
+      <c r="AC101">
+        <v>1</v>
+      </c>
+      <c r="AD101" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE101">
+        <v>67435.1284655294</v>
+      </c>
+      <c r="AF101">
+        <v>0.86648963169551096</v>
+      </c>
+      <c r="AG101">
+        <v>25541.2268259011</v>
+      </c>
+      <c r="AI101">
+        <v>1999</v>
+      </c>
+      <c r="AJ101">
+        <v>1</v>
+      </c>
+      <c r="AK101" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL101">
+        <v>47252.351107314003</v>
+      </c>
+      <c r="AM101">
+        <v>0.86931581003321401</v>
+      </c>
+      <c r="AN101">
+        <v>16831.2736759053</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>2005</v>
       </c>
@@ -12898,26 +14965,44 @@
       <c r="T102">
         <v>37330.821629999999</v>
       </c>
-      <c r="AB102" s="6">
-        <v>2004</v>
-      </c>
-      <c r="AC102" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD102" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE102" s="6">
-        <v>212666.49540000001</v>
-      </c>
-      <c r="AF102" s="6">
-        <v>0.50640259440000002</v>
-      </c>
-      <c r="AG102" s="6">
-        <v>60029.661890000003</v>
+      <c r="AB102">
+        <v>2000</v>
+      </c>
+      <c r="AC102">
+        <v>1</v>
+      </c>
+      <c r="AD102" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE102">
+        <v>135547.96330004701</v>
+      </c>
+      <c r="AF102">
+        <v>0.80753367209448101</v>
+      </c>
+      <c r="AG102">
+        <v>48845.632961884898</v>
+      </c>
+      <c r="AI102">
+        <v>2000</v>
+      </c>
+      <c r="AJ102">
+        <v>1</v>
+      </c>
+      <c r="AK102" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL102">
+        <v>119459.0430487</v>
+      </c>
+      <c r="AM102">
+        <v>0.72903190557963005</v>
+      </c>
+      <c r="AN102">
+        <v>40523.319883231801</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>2006</v>
       </c>
@@ -12954,26 +15039,44 @@
       <c r="T103">
         <v>6442.0089390000003</v>
       </c>
-      <c r="AB103" s="6">
-        <v>2005</v>
-      </c>
-      <c r="AC103" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD103" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE103" s="6">
-        <v>110576.7871</v>
-      </c>
-      <c r="AF103" s="6">
-        <v>0.44094448069999997</v>
-      </c>
-      <c r="AG103" s="6">
-        <v>28020.47827</v>
+      <c r="AB103">
+        <v>2001</v>
+      </c>
+      <c r="AC103">
+        <v>1</v>
+      </c>
+      <c r="AD103" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE103">
+        <v>94877.773091890806</v>
+      </c>
+      <c r="AF103">
+        <v>0.86884842569512399</v>
+      </c>
+      <c r="AG103">
+        <v>36683.3140008751</v>
+      </c>
+      <c r="AI103">
+        <v>2001</v>
+      </c>
+      <c r="AJ103">
+        <v>1</v>
+      </c>
+      <c r="AK103" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL103">
+        <v>94631.149433604398</v>
+      </c>
+      <c r="AM103">
+        <v>0.77663100016164299</v>
+      </c>
+      <c r="AN103">
+        <v>34808.868862938303</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>2007</v>
       </c>
@@ -13010,26 +15113,44 @@
       <c r="T104">
         <v>8555.118923</v>
       </c>
-      <c r="AB104" s="6">
-        <v>2006</v>
-      </c>
-      <c r="AC104" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD104" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE104" s="6">
-        <v>9201.7379679999995</v>
-      </c>
-      <c r="AF104" s="6">
-        <v>0.58971463400000002</v>
-      </c>
-      <c r="AG104" s="6">
-        <v>2902.190227</v>
+      <c r="AB104">
+        <v>2002</v>
+      </c>
+      <c r="AC104">
+        <v>1</v>
+      </c>
+      <c r="AD104" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE104">
+        <v>162514.28862433301</v>
+      </c>
+      <c r="AF104">
+        <v>0.62016553000387697</v>
+      </c>
+      <c r="AG104">
+        <v>49287.691349295703</v>
+      </c>
+      <c r="AI104">
+        <v>2002</v>
+      </c>
+      <c r="AJ104">
+        <v>1</v>
+      </c>
+      <c r="AK104" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL104">
+        <v>175967.31354839899</v>
+      </c>
+      <c r="AM104">
+        <v>0.57500341084560302</v>
+      </c>
+      <c r="AN104">
+        <v>51824.916609218402</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>2008</v>
       </c>
@@ -13066,26 +15187,44 @@
       <c r="T105">
         <v>6495.1974259999997</v>
       </c>
-      <c r="AB105" s="6">
-        <v>2007</v>
-      </c>
-      <c r="AC105" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD105" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE105" s="6">
-        <v>14489.50503</v>
-      </c>
-      <c r="AF105" s="6">
-        <v>0.60760933120000005</v>
-      </c>
-      <c r="AG105" s="6">
-        <v>4770.522747</v>
+      <c r="AB105">
+        <v>2003</v>
+      </c>
+      <c r="AC105">
+        <v>1</v>
+      </c>
+      <c r="AD105" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE105">
+        <v>490006.77242479898</v>
+      </c>
+      <c r="AF105">
+        <v>0.55791510184870696</v>
+      </c>
+      <c r="AG105">
+        <v>138242.31318103601</v>
+      </c>
+      <c r="AI105">
+        <v>2003</v>
+      </c>
+      <c r="AJ105">
+        <v>1</v>
+      </c>
+      <c r="AK105" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL105">
+        <v>561784.90178179403</v>
+      </c>
+      <c r="AM105">
+        <v>0.53221495930780005</v>
+      </c>
+      <c r="AN105">
+        <v>155881.15725535501</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>2009</v>
       </c>
@@ -13122,26 +15261,44 @@
       <c r="T106">
         <v>2854.8161789999999</v>
       </c>
-      <c r="AB106" s="6">
-        <v>2008</v>
-      </c>
-      <c r="AC106" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD106" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE106" s="6">
-        <v>11640.011860000001</v>
-      </c>
-      <c r="AF106" s="6">
-        <v>0.55857647109999997</v>
-      </c>
-      <c r="AG106" s="6">
-        <v>3769.4305169999998</v>
+      <c r="AB106">
+        <v>2004</v>
+      </c>
+      <c r="AC106">
+        <v>1</v>
+      </c>
+      <c r="AD106" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE106">
+        <v>276934.83692108199</v>
+      </c>
+      <c r="AF106">
+        <v>0.56399781601916299</v>
+      </c>
+      <c r="AG106">
+        <v>79089.408463114494</v>
+      </c>
+      <c r="AI106">
+        <v>2004</v>
+      </c>
+      <c r="AJ106">
+        <v>1</v>
+      </c>
+      <c r="AK106" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL106">
+        <v>281546.89372248098</v>
+      </c>
+      <c r="AM106">
+        <v>0.52873922296630005</v>
+      </c>
+      <c r="AN106">
+        <v>78363.060613472495</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>2010</v>
       </c>
@@ -13178,26 +15335,44 @@
       <c r="T107">
         <v>2128.3756410000001</v>
       </c>
-      <c r="AB107" s="6">
-        <v>2009</v>
-      </c>
-      <c r="AC107" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD107" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE107" s="6">
-        <v>5664.2538100000002</v>
-      </c>
-      <c r="AF107" s="6">
-        <v>0.62067724820000003</v>
-      </c>
-      <c r="AG107" s="6">
-        <v>2006.1394640000001</v>
+      <c r="AB107">
+        <v>2005</v>
+      </c>
+      <c r="AC107">
+        <v>1</v>
+      </c>
+      <c r="AD107" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE107">
+        <v>176908.13414905799</v>
+      </c>
+      <c r="AF107">
+        <v>0.56484155463667396</v>
+      </c>
+      <c r="AG107">
+        <v>51322.417257866997</v>
+      </c>
+      <c r="AI107">
+        <v>2005</v>
+      </c>
+      <c r="AJ107">
+        <v>1</v>
+      </c>
+      <c r="AK107" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL107">
+        <v>183828.37592882899</v>
+      </c>
+      <c r="AM107">
+        <v>0.53195309345345299</v>
+      </c>
+      <c r="AN107">
+        <v>52206.270574083399</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>2011</v>
       </c>
@@ -13234,26 +15409,44 @@
       <c r="T108">
         <v>11169.119409999999</v>
       </c>
-      <c r="AB108" s="6">
-        <v>2010</v>
-      </c>
-      <c r="AC108" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD108" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE108" s="6">
-        <v>7752.157835</v>
-      </c>
-      <c r="AF108" s="6">
-        <v>0.25555673029999998</v>
-      </c>
-      <c r="AG108" s="6">
-        <v>1411.2445789999999</v>
+      <c r="AB108">
+        <v>2006</v>
+      </c>
+      <c r="AC108">
+        <v>1</v>
+      </c>
+      <c r="AD108" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE108">
+        <v>26784.643087561599</v>
+      </c>
+      <c r="AF108">
+        <v>0.83204626726275399</v>
+      </c>
+      <c r="AG108">
+        <v>10258.774939204999</v>
+      </c>
+      <c r="AI108">
+        <v>2006</v>
+      </c>
+      <c r="AJ108">
+        <v>1</v>
+      </c>
+      <c r="AK108" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL108">
+        <v>26619.100232446101</v>
+      </c>
+      <c r="AM108">
+        <v>0.76036867505485695</v>
+      </c>
+      <c r="AN108">
+        <v>9642.0904685497608</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>2012</v>
       </c>
@@ -13290,26 +15483,44 @@
       <c r="T109">
         <v>14611.618130000001</v>
       </c>
-      <c r="AB109" s="6">
-        <v>2011</v>
-      </c>
-      <c r="AC109" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD109" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE109" s="6">
-        <v>43678.602709999999</v>
-      </c>
-      <c r="AF109" s="6">
-        <v>0.51198451280000001</v>
-      </c>
-      <c r="AG109" s="6">
-        <v>13110.177820000001</v>
+      <c r="AB109">
+        <v>2007</v>
+      </c>
+      <c r="AC109">
+        <v>1</v>
+      </c>
+      <c r="AD109" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE109">
+        <v>44309.597310889301</v>
+      </c>
+      <c r="AF109">
+        <v>0.79015485610008895</v>
+      </c>
+      <c r="AG109">
+        <v>16458.413867131901</v>
+      </c>
+      <c r="AI109">
+        <v>2007</v>
+      </c>
+      <c r="AJ109">
+        <v>1</v>
+      </c>
+      <c r="AK109" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL109">
+        <v>38321.9778239437</v>
+      </c>
+      <c r="AM109">
+        <v>0.73386366633934896</v>
+      </c>
+      <c r="AN109">
+        <v>13372.8538265231</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>2013</v>
       </c>
@@ -13346,26 +15557,44 @@
       <c r="T110">
         <v>26336.61493</v>
       </c>
-      <c r="AB110" s="6">
-        <v>2012</v>
-      </c>
-      <c r="AC110" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD110" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE110" s="6">
-        <v>21652.534889999999</v>
-      </c>
-      <c r="AF110" s="6">
-        <v>0.63926086459999998</v>
-      </c>
-      <c r="AG110" s="6">
-        <v>7171.7590989999999</v>
+      <c r="AB110">
+        <v>2008</v>
+      </c>
+      <c r="AC110">
+        <v>1</v>
+      </c>
+      <c r="AD110" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE110">
+        <v>30106.298347115098</v>
+      </c>
+      <c r="AF110">
+        <v>0.71907381855680497</v>
+      </c>
+      <c r="AG110">
+        <v>10676.888107967199</v>
+      </c>
+      <c r="AI110">
+        <v>2008</v>
+      </c>
+      <c r="AJ110">
+        <v>1</v>
+      </c>
+      <c r="AK110" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL110">
+        <v>22491.462142170101</v>
+      </c>
+      <c r="AM110">
+        <v>0.70281453503764002</v>
+      </c>
+      <c r="AN110">
+        <v>7503.5421122739399</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>2014</v>
       </c>
@@ -13402,26 +15631,44 @@
       <c r="T111">
         <v>137306.57740000001</v>
       </c>
-      <c r="AB111" s="6">
-        <v>2013</v>
-      </c>
-      <c r="AC111" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD111" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE111" s="6">
-        <v>57507.984219999998</v>
-      </c>
-      <c r="AF111" s="6">
-        <v>0.61795958520000005</v>
-      </c>
-      <c r="AG111" s="6">
-        <v>18636.55198</v>
+      <c r="AB111">
+        <v>2009</v>
+      </c>
+      <c r="AC111">
+        <v>1</v>
+      </c>
+      <c r="AD111" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE111">
+        <v>16377.542812339299</v>
+      </c>
+      <c r="AF111">
+        <v>0.69135830203341897</v>
+      </c>
+      <c r="AG111">
+        <v>5773.4766096908697</v>
+      </c>
+      <c r="AI111">
+        <v>2009</v>
+      </c>
+      <c r="AJ111">
+        <v>1</v>
+      </c>
+      <c r="AK111" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL111">
+        <v>13803.1526421122</v>
+      </c>
+      <c r="AM111">
+        <v>0.653969506775265</v>
+      </c>
+      <c r="AN111">
+        <v>4539.9885982491396</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>2015</v>
       </c>
@@ -13458,26 +15705,44 @@
       <c r="T112">
         <v>293410.43540000002</v>
       </c>
-      <c r="AB112" s="6">
-        <v>2014</v>
-      </c>
-      <c r="AC112" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD112" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE112" s="6">
-        <v>514625.16129999998</v>
-      </c>
-      <c r="AF112" s="6">
-        <v>0.60145558060000004</v>
-      </c>
-      <c r="AG112" s="6">
-        <v>160712.12239999999</v>
+      <c r="AB112">
+        <v>2010</v>
+      </c>
+      <c r="AC112">
+        <v>1</v>
+      </c>
+      <c r="AD112" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE112">
+        <v>21535.1213778774</v>
+      </c>
+      <c r="AF112">
+        <v>0.15400272745149701</v>
+      </c>
+      <c r="AG112">
+        <v>2486.5180389342299</v>
+      </c>
+      <c r="AI112">
+        <v>2010</v>
+      </c>
+      <c r="AJ112">
+        <v>1</v>
+      </c>
+      <c r="AK112" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL112">
+        <v>21816.035345456101</v>
+      </c>
+      <c r="AM112">
+        <v>0.154777487874348</v>
+      </c>
+      <c r="AN112">
+        <v>2483.3840190762198</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>2016</v>
       </c>
@@ -13514,26 +15779,44 @@
       <c r="T113">
         <v>451482.28480000002</v>
       </c>
-      <c r="AB113" s="6">
-        <v>2015</v>
-      </c>
-      <c r="AC113" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD113" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE113" s="6">
-        <v>1193759.5930000001</v>
-      </c>
-      <c r="AF113" s="6">
-        <v>0.56428455550000001</v>
-      </c>
-      <c r="AG113" s="6">
-        <v>356299.46950000001</v>
+      <c r="AB113">
+        <v>2011</v>
+      </c>
+      <c r="AC113">
+        <v>1</v>
+      </c>
+      <c r="AD113" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE113">
+        <v>98573.131233237596</v>
+      </c>
+      <c r="AF113">
+        <v>0.653402188987106</v>
+      </c>
+      <c r="AG113">
+        <v>33343.794626276002</v>
+      </c>
+      <c r="AI113">
+        <v>2011</v>
+      </c>
+      <c r="AJ113">
+        <v>1</v>
+      </c>
+      <c r="AK113" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL113">
+        <v>107421.687340943</v>
+      </c>
+      <c r="AM113">
+        <v>0.58723157762690503</v>
+      </c>
+      <c r="AN113">
+        <v>33923.219646674697</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>2017</v>
       </c>
@@ -13570,26 +15853,44 @@
       <c r="T114">
         <v>202790.88649999999</v>
       </c>
-      <c r="AB114" s="6">
-        <v>2016</v>
-      </c>
-      <c r="AC114" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD114" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE114" s="6">
-        <v>2043808.6510000001</v>
-      </c>
-      <c r="AF114" s="6">
-        <v>0.5375440614</v>
-      </c>
-      <c r="AG114" s="6">
-        <v>592364.25879999995</v>
+      <c r="AB114">
+        <v>2012</v>
+      </c>
+      <c r="AC114">
+        <v>1</v>
+      </c>
+      <c r="AD114" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE114">
+        <v>85322.391925966003</v>
+      </c>
+      <c r="AF114">
+        <v>0.78091314771848597</v>
+      </c>
+      <c r="AG114">
+        <v>31981.720696771899</v>
+      </c>
+      <c r="AI114">
+        <v>2012</v>
+      </c>
+      <c r="AJ114">
+        <v>1</v>
+      </c>
+      <c r="AK114" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL114">
+        <v>62516.103426454101</v>
+      </c>
+      <c r="AM114">
+        <v>0.78270394134402099</v>
+      </c>
+      <c r="AN114">
+        <v>22060.611683354098</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>2018</v>
       </c>
@@ -13626,26 +15927,44 @@
       <c r="T115">
         <v>206285.50640000001</v>
       </c>
-      <c r="AB115" s="6">
-        <v>2017</v>
-      </c>
-      <c r="AC115" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD115" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE115" s="6">
-        <v>1667538.2560000001</v>
-      </c>
-      <c r="AF115" s="6">
-        <v>0.1291662985</v>
-      </c>
-      <c r="AG115" s="6">
-        <v>166329.98680000001</v>
+      <c r="AB115">
+        <v>2013</v>
+      </c>
+      <c r="AC115">
+        <v>1</v>
+      </c>
+      <c r="AD115" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE115">
+        <v>137482.69303954201</v>
+      </c>
+      <c r="AF115">
+        <v>0.75554571020327199</v>
+      </c>
+      <c r="AG115">
+        <v>49135.588849488398</v>
+      </c>
+      <c r="AI115">
+        <v>2013</v>
+      </c>
+      <c r="AJ115">
+        <v>1</v>
+      </c>
+      <c r="AK115" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL115">
+        <v>114885.63905995899</v>
+      </c>
+      <c r="AM115">
+        <v>0.69389190878041096</v>
+      </c>
+      <c r="AN115">
+        <v>38529.238018619202</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>2019</v>
       </c>
@@ -13682,26 +16001,44 @@
       <c r="T116">
         <v>147588.242</v>
       </c>
-      <c r="AB116" s="6">
-        <v>2018</v>
-      </c>
-      <c r="AC116" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD116" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE116" s="6">
-        <v>1562525.8189999999</v>
-      </c>
-      <c r="AF116" s="6">
-        <v>0.19568921980000001</v>
-      </c>
-      <c r="AG116" s="6">
-        <v>208668.20749999999</v>
+      <c r="AB116">
+        <v>2014</v>
+      </c>
+      <c r="AC116">
+        <v>1</v>
+      </c>
+      <c r="AD116" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE116">
+        <v>588262.65564533602</v>
+      </c>
+      <c r="AF116">
+        <v>0.68422523415159098</v>
+      </c>
+      <c r="AG116">
+        <v>193176.80189978101</v>
+      </c>
+      <c r="AI116">
+        <v>2014</v>
+      </c>
+      <c r="AJ116">
+        <v>1</v>
+      </c>
+      <c r="AK116" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL116">
+        <v>615130.80533346301</v>
+      </c>
+      <c r="AM116">
+        <v>0.615381279504842</v>
+      </c>
+      <c r="AN116">
+        <v>192282.21952261301</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2016</v>
       </c>
@@ -13709,7 +16046,7 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D117">
         <v>1769561.47111432</v>
@@ -13720,26 +16057,44 @@
       <c r="F117">
         <v>497777.55867427401</v>
       </c>
-      <c r="AB117" s="6">
-        <v>2019</v>
-      </c>
-      <c r="AC117" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD117" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE117" s="6">
-        <v>1566578.078</v>
-      </c>
-      <c r="AF117" s="6">
-        <v>0.1192391569</v>
-      </c>
-      <c r="AG117" s="6">
-        <v>144224.63080000001</v>
+      <c r="AB117">
+        <v>2015</v>
+      </c>
+      <c r="AC117">
+        <v>1</v>
+      </c>
+      <c r="AD117" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE117">
+        <v>1307872.4766747199</v>
+      </c>
+      <c r="AF117">
+        <v>0.61813699887037099</v>
+      </c>
+      <c r="AG117">
+        <v>400377.31426042499</v>
+      </c>
+      <c r="AI117">
+        <v>2015</v>
+      </c>
+      <c r="AJ117">
+        <v>1</v>
+      </c>
+      <c r="AK117" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL117">
+        <v>1282693.25561723</v>
+      </c>
+      <c r="AM117">
+        <v>0.562459589522464</v>
+      </c>
+      <c r="AN117">
+        <v>375402.33364221</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2017</v>
       </c>
@@ -13747,7 +16102,7 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D118">
         <v>1768664.2982293</v>
@@ -13758,8 +16113,44 @@
       <c r="F118">
         <v>182540.82974588699</v>
       </c>
+      <c r="AB118">
+        <v>2016</v>
+      </c>
+      <c r="AC118">
+        <v>1</v>
+      </c>
+      <c r="AD118" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE118">
+        <v>1694145.7507433901</v>
+      </c>
+      <c r="AF118">
+        <v>0.558879027806371</v>
+      </c>
+      <c r="AG118">
+        <v>496204.57486158703</v>
+      </c>
+      <c r="AI118">
+        <v>2016</v>
+      </c>
+      <c r="AJ118">
+        <v>1</v>
+      </c>
+      <c r="AK118" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL118">
+        <v>1769561.47111432</v>
+      </c>
+      <c r="AM118">
+        <v>0.51665411573942599</v>
+      </c>
+      <c r="AN118">
+        <v>497777.55867427401</v>
+      </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2018</v>
       </c>
@@ -13767,7 +16158,7 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D119">
         <v>1518501.3280475</v>
@@ -13778,8 +16169,44 @@
       <c r="F119">
         <v>195889.78807347099</v>
       </c>
+      <c r="AB119">
+        <v>2017</v>
+      </c>
+      <c r="AC119">
+        <v>1</v>
+      </c>
+      <c r="AD119" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE119">
+        <v>1811709.4862226599</v>
+      </c>
+      <c r="AF119">
+        <v>0.14158922675750599</v>
+      </c>
+      <c r="AG119">
+        <v>191989.53160869499</v>
+      </c>
+      <c r="AI119">
+        <v>2017</v>
+      </c>
+      <c r="AJ119">
+        <v>1</v>
+      </c>
+      <c r="AK119" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL119">
+        <v>1768664.2982293</v>
+      </c>
+      <c r="AM119">
+        <v>0.13798456672881201</v>
+      </c>
+      <c r="AN119">
+        <v>182540.82974588699</v>
+      </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2019</v>
       </c>
@@ -13787,7 +16214,7 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D120">
         <v>1574712.08948566</v>
@@ -13798,8 +16225,44 @@
       <c r="F120">
         <v>136801.931834458</v>
       </c>
+      <c r="AB120">
+        <v>2018</v>
+      </c>
+      <c r="AC120">
+        <v>1</v>
+      </c>
+      <c r="AD120" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE120">
+        <v>1517823.7074623399</v>
+      </c>
+      <c r="AF120">
+        <v>0.18880213636650001</v>
+      </c>
+      <c r="AG120">
+        <v>198213.12522175501</v>
+      </c>
+      <c r="AI120">
+        <v>2018</v>
+      </c>
+      <c r="AJ120">
+        <v>1</v>
+      </c>
+      <c r="AK120" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL120">
+        <v>1518501.3280475</v>
+      </c>
+      <c r="AM120">
+        <v>0.18572355285356701</v>
+      </c>
+      <c r="AN120">
+        <v>195889.78807347099</v>
+      </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2020</v>
       </c>
@@ -13807,19 +16270,55 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="AB121">
+        <v>2019</v>
+      </c>
+      <c r="AC121">
+        <v>1</v>
+      </c>
+      <c r="AD121" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE121">
+        <v>1593007.9029393899</v>
+      </c>
+      <c r="AF121">
+        <v>0.11640804648719499</v>
+      </c>
+      <c r="AG121">
+        <v>138928.108551415</v>
+      </c>
+      <c r="AI121">
+        <v>2019</v>
+      </c>
+      <c r="AJ121">
+        <v>1</v>
+      </c>
+      <c r="AK121" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL121">
+        <v>1574712.08948566</v>
+      </c>
+      <c r="AM121">
+        <v>0.115210882075422</v>
+      </c>
+      <c r="AN121">
+        <v>136801.931834458</v>
       </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2021</v>
       </c>
@@ -13827,7 +16326,7 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D122">
         <v>568780.108624771</v>
@@ -13836,6 +16335,80 @@
         <v>0.125521498021441</v>
       </c>
       <c r="F122">
+        <v>53615.6080560181</v>
+      </c>
+      <c r="AB122">
+        <v>2020</v>
+      </c>
+      <c r="AC122">
+        <v>1</v>
+      </c>
+      <c r="AD122" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE122">
+        <v>0</v>
+      </c>
+      <c r="AF122" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG122" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI122">
+        <v>2020</v>
+      </c>
+      <c r="AJ122">
+        <v>1</v>
+      </c>
+      <c r="AK122" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL122">
+        <v>0</v>
+      </c>
+      <c r="AM122" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB123">
+        <v>2021</v>
+      </c>
+      <c r="AC123">
+        <v>1</v>
+      </c>
+      <c r="AD123" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE123">
+        <v>575291.44805861998</v>
+      </c>
+      <c r="AF123">
+        <v>0.12757784856930099</v>
+      </c>
+      <c r="AG123">
+        <v>54735.626856901697</v>
+      </c>
+      <c r="AI123">
+        <v>2021</v>
+      </c>
+      <c r="AJ123">
+        <v>1</v>
+      </c>
+      <c r="AK123" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL123">
+        <v>568780.108624771</v>
+      </c>
+      <c r="AM123">
+        <v>0.125521498021441</v>
+      </c>
+      <c r="AN123">
         <v>53615.6080560181</v>
       </c>
     </row>
